--- a/budget.xlsx
+++ b/budget.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zalan\Nextcloud\Dokumentumok\BME\Autonóm_járműirányítási_mérnök\Vehicle Mechanics Fundamentals\optimum-lap-championship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zalan\Nextcloud\Dokumentumok\BME\Autonóm_járműirányítási_mérnök\Tárgyak\Vehicle Mechanics Fundamentals\optimum-lap-championship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB3A3E5-D18C-49F4-88F0-52BF1F5D5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120D500F-B12D-43FA-9C87-B1582A6036A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="0" windowWidth="17010" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11895" yWindow="0" windowWidth="39810" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
-    <sheet name="Munka1" sheetId="2" r:id="rId2"/>
+    <sheet name="No charts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="71">
   <si>
     <t>Tire Data</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Overall it performs the same as maximizing the engine power, but the devation of the updates per track is smaller.</t>
   </si>
   <si>
-    <t>Because the deviation is smaller changing the initial setup to this.</t>
-  </si>
-  <si>
     <t>This is the base car.</t>
   </si>
   <si>
@@ -220,18 +217,52 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Even though the deviation is smaller not changing the initial setup to this, as engine power is more understandable from the get go.</t>
+  </si>
+  <si>
+    <t>This will be the initial setup.</t>
+  </si>
+  <si>
+    <t>When choosing the initial setup, the Aero Efficiency and Power Factor had a very similar performance increase. Spending half of the budget on one and the other.</t>
+  </si>
+  <si>
+    <t>Performs slightly better almost on every track.</t>
+  </si>
+  <si>
+    <t>This is a better result, keeping this iteration.</t>
+  </si>
+  <si>
+    <t>Combining the three top performers of the initial setup change based on their performance increase.</t>
+  </si>
+  <si>
+    <t>Performs worse overall.</t>
+  </si>
+  <si>
+    <t>Not keeping this iteration.</t>
+  </si>
+  <si>
+    <t>Combining all of the parameters of the initial setup change based on their performance increase.</t>
+  </si>
+  <si>
+    <t>Performs even worse then the previous iteration.</t>
+  </si>
+  <si>
+    <t>Changing the friction coefficients might not be a viable option. Very high cost, very low impact.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;M&quot;"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="\+0.00;\-0.00;0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;s&quot;"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -344,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,9 +399,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -401,8 +429,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,6 +443,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,13 +459,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -443,20 +480,24 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="82">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -465,18 +506,88 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -503,92 +614,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -603,6 +644,22 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -1131,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:X87"/>
+  <dimension ref="B1:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y51" sqref="Y51"/>
+    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23:AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,14 +1206,14 @@
   <sheetData>
     <row r="1" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1233,7 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1188,7 +1245,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -1204,7 +1261,7 @@
       <c r="F5" s="8">
         <v>10</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>2.1</v>
       </c>
     </row>
@@ -1222,7 +1279,7 @@
       <c r="F6" s="8">
         <v>20</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>1.95</v>
       </c>
     </row>
@@ -1234,14 +1291,14 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0.01</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1250,7 +1307,7 @@
       <c r="F8" s="8">
         <v>5</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1259,17 +1316,17 @@
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0.1</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1278,7 +1335,7 @@
       <c r="F10" s="8">
         <v>1.18</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1287,17 +1344,17 @@
         <v>3</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.5</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1306,99 +1363,99 @@
       <c r="F12" s="8">
         <v>1.2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>743</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="35">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="37">
         <v>100</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
-        <v>0</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="22"/>
-    </row>
-    <row r="17" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+    </row>
+    <row r="17" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1">
@@ -1412,50 +1469,50 @@
         <f>D17*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="30" t="s">
+      <c r="P17" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="30" t="s">
+      <c r="Q17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="30" t="s">
+      <c r="R17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="22"/>
-    </row>
-    <row r="18" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31">
+      <c r="S17" s="31"/>
+    </row>
+    <row r="18" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="33">
         <f>STDEVA(G22:R23)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1">
@@ -1469,23 +1526,23 @@
         <f>D18*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="22"/>
-    </row>
-    <row r="19" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="12" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="31"/>
+    </row>
+    <row r="19" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1">
@@ -1499,25 +1556,25 @@
         <f>D19*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="22"/>
-    </row>
-    <row r="20" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="31"/>
+    </row>
+    <row r="20" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1">
@@ -1531,51 +1588,51 @@
         <f>D20*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="27">
         <v>87.48</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="27">
         <v>91.39</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="27">
         <v>76.59</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="27">
         <v>71.37</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="27">
         <v>68.180000000000007</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="27">
         <v>69.39</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="27">
         <v>83.59</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="27">
         <v>81.02</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="27">
         <v>72.849999999999994</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="27">
         <v>101.38</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="27">
         <v>64.16</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="27">
         <v>86.09</v>
       </c>
-      <c r="S20" s="32" t="s">
+      <c r="S20" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12" t="s">
+    <row r="21" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="28">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="1">
@@ -1589,111 +1646,111 @@
         <f>D21*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="32"/>
-    </row>
-    <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14" t="s">
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="26"/>
+    </row>
+    <row r="22" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <f>SUM(F17:F21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="36">
-        <v>0</v>
-      </c>
-      <c r="H22" s="36">
-        <v>0</v>
-      </c>
-      <c r="I22" s="36">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36">
-        <v>0</v>
-      </c>
-      <c r="K22" s="36">
-        <v>0</v>
-      </c>
-      <c r="L22" s="36">
-        <v>0</v>
-      </c>
-      <c r="M22" s="36">
-        <v>0</v>
-      </c>
-      <c r="N22" s="36">
-        <v>0</v>
-      </c>
-      <c r="O22" s="36">
-        <v>0</v>
-      </c>
-      <c r="P22" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="36">
-        <v>0</v>
-      </c>
-      <c r="R22" s="36">
-        <v>0</v>
-      </c>
-      <c r="S22" s="32" t="s">
+      <c r="G22" s="34">
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+      <c r="I22" s="34">
+        <v>0</v>
+      </c>
+      <c r="J22" s="34">
+        <v>0</v>
+      </c>
+      <c r="K22" s="34">
+        <v>0</v>
+      </c>
+      <c r="L22" s="34">
+        <v>0</v>
+      </c>
+      <c r="M22" s="34">
+        <v>0</v>
+      </c>
+      <c r="N22" s="34">
+        <v>0</v>
+      </c>
+      <c r="O22" s="34">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="34">
+        <v>0</v>
+      </c>
+      <c r="R22" s="34">
+        <v>0</v>
+      </c>
+      <c r="S22" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <f>$E$13-F22</f>
         <v>100</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="32"/>
-    </row>
-    <row r="24" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23">
         <f>SUM(G20:R21)</f>
         <v>953.49</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -1701,18 +1758,18 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
-      <c r="S24" s="32" t="s">
+      <c r="S24" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -1730,46 +1787,46 @@
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
-      <c r="S25" s="32"/>
-    </row>
-    <row r="26" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19">
+      <c r="S25" s="26"/>
+    </row>
+    <row r="26" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
         <f>B16+1</f>
         <v>1</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="22"/>
-    </row>
-    <row r="27" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="31"/>
+    </row>
+    <row r="27" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="1">
@@ -1783,50 +1840,50 @@
         <f>D27*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="30" t="s">
+      <c r="N27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="30" t="s">
+      <c r="O27" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="30" t="s">
+      <c r="P27" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" s="30" t="s">
+      <c r="Q27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="30" t="s">
+      <c r="R27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="22"/>
-    </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="31">
+      <c r="S27" s="31"/>
+    </row>
+    <row r="28" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="33">
         <f>STDEVA(G32:R33)</f>
         <v>0.41668606015472887</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1">
@@ -1840,23 +1897,28 @@
         <f>D28*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="22"/>
-    </row>
-    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="12" t="s">
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="31"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+    </row>
+    <row r="29" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
+      <c r="C29" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="1">
@@ -1870,25 +1932,25 @@
         <f>D29*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="22"/>
-    </row>
-    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="31"/>
+    </row>
+    <row r="30" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="39" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="1">
@@ -1902,52 +1964,52 @@
         <f>D30*$F$10</f>
         <v>99.11999999999999</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="27">
         <v>86.48</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="27">
         <v>90.46</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="27">
         <v>75.87</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="27">
         <v>71.38</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="27">
         <v>67.209999999999994</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="27">
         <v>68.55</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="27">
         <v>82.22</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="27">
         <v>80.09</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O30" s="27">
         <v>72.25</v>
       </c>
-      <c r="P30" s="26">
+      <c r="P30" s="27">
         <v>99.68</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="27">
         <v>63.3</v>
       </c>
-      <c r="R30" s="26">
+      <c r="R30" s="27">
         <v>84.9</v>
       </c>
-      <c r="S30" s="32" t="s">
+      <c r="S30" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27">
+    <row r="31" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="28">
         <f>B34-$B$24</f>
         <v>-11.100000000000023</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1">
@@ -1961,109 +2023,109 @@
         <f>D31*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="32"/>
-    </row>
-    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14" t="s">
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="26"/>
+    </row>
+    <row r="32" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="28"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="17">
         <f>SUM(F27:F31)</f>
         <v>99.11999999999999</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="29">
         <f>G30-G$20</f>
         <v>-1</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="29">
         <f t="shared" ref="H32:R32" si="0">H30-H$20</f>
         <v>-0.93000000000000682</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="29">
         <f t="shared" si="0"/>
         <v>-0.71999999999999886</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="29">
         <f t="shared" si="0"/>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="29">
         <f t="shared" si="0"/>
         <v>-0.97000000000001307</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="29">
         <f t="shared" si="0"/>
         <v>-0.84000000000000341</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="29">
         <f t="shared" si="0"/>
         <v>-1.3700000000000045</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="29">
         <f t="shared" si="0"/>
         <v>-0.92999999999999261</v>
       </c>
-      <c r="O32" s="28">
+      <c r="O32" s="29">
         <f t="shared" si="0"/>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="P32" s="28">
+      <c r="P32" s="29">
         <f t="shared" si="0"/>
         <v>-1.6999999999999886</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="Q32" s="29">
         <f t="shared" si="0"/>
         <v>-0.85999999999999943</v>
       </c>
-      <c r="R32" s="28">
+      <c r="R32" s="29">
         <f t="shared" si="0"/>
         <v>-1.1899999999999977</v>
       </c>
-      <c r="S32" s="32" t="s">
+      <c r="S32" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="17">
         <f>$E$13-F32</f>
         <v>0.88000000000000966</v>
       </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="32"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="26"/>
     </row>
     <row r="34" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="23">
@@ -2092,7 +2154,7 @@
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
-      <c r="S34" s="32" t="s">
+      <c r="S34" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2114,46 +2176,46 @@
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
-      <c r="S35" s="32"/>
+      <c r="S35" s="26"/>
     </row>
     <row r="36" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19">
+      <c r="B36" s="18">
         <f>B26+1</f>
         <v>2</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="22"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="31"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="1">
@@ -2167,50 +2229,50 @@
         <f>D37*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="30" t="s">
+      <c r="I37" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="J37" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="30" t="s">
+      <c r="K37" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="30" t="s">
+      <c r="M37" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N37" s="30" t="s">
+      <c r="N37" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O37" s="30" t="s">
+      <c r="O37" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="30" t="s">
+      <c r="P37" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="30" t="s">
+      <c r="Q37" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="30" t="s">
+      <c r="R37" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S37" s="22"/>
+      <c r="S37" s="31"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="31">
+      <c r="B38" s="33">
         <f>STDEVA(G42:R43)</f>
         <v>0.23529961557747509</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="1">
@@ -2224,23 +2286,23 @@
         <f>D38*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="22"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="31"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="31"/>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="1">
@@ -2254,25 +2316,25 @@
         <f>D39*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="22"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="31"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="1">
@@ -2286,52 +2348,52 @@
         <f>D40*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="27">
         <v>86.53</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="27">
         <v>90.33</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="27">
         <v>75.709999999999994</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="27">
         <v>71.069999999999993</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K40" s="27">
         <v>67.55</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L40" s="27">
         <v>68.72</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40" s="27">
         <v>82.74</v>
       </c>
-      <c r="N40" s="26">
+      <c r="N40" s="27">
         <v>79.989999999999995</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O40" s="27">
         <v>71.84</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P40" s="27">
         <v>100.42</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="Q40" s="27">
         <v>63.32</v>
       </c>
-      <c r="R40" s="26">
+      <c r="R40" s="27">
         <v>84.92</v>
       </c>
-      <c r="S40" s="32" t="s">
+      <c r="S40" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="27">
+      <c r="B41" s="28">
         <f>B44-$B$24</f>
         <v>-10.350000000000023</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="1">
@@ -2345,109 +2407,109 @@
         <f>D41*$F$12</f>
         <v>99.6</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="32"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="26"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="17">
         <f>SUM(F37:F41)</f>
         <v>99.6</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="29">
         <f>G40-G$20</f>
         <v>-0.95000000000000284</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="29">
         <f t="shared" ref="H42:Q42" si="1">H40-H$20</f>
         <v>-1.0600000000000023</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="29">
         <f t="shared" si="1"/>
         <v>-0.88000000000000966</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J42" s="29">
         <f t="shared" si="1"/>
         <v>-0.30000000000001137</v>
       </c>
-      <c r="K42" s="28">
+      <c r="K42" s="29">
         <f t="shared" si="1"/>
         <v>-0.63000000000000966</v>
       </c>
-      <c r="L42" s="28">
+      <c r="L42" s="29">
         <f t="shared" si="1"/>
         <v>-0.67000000000000171</v>
       </c>
-      <c r="M42" s="28">
+      <c r="M42" s="29">
         <f t="shared" si="1"/>
         <v>-0.85000000000000853</v>
       </c>
-      <c r="N42" s="28">
+      <c r="N42" s="29">
         <f t="shared" si="1"/>
         <v>-1.0300000000000011</v>
       </c>
-      <c r="O42" s="28">
+      <c r="O42" s="29">
         <f t="shared" si="1"/>
         <v>-1.0099999999999909</v>
       </c>
-      <c r="P42" s="28">
+      <c r="P42" s="29">
         <f t="shared" si="1"/>
         <v>-0.95999999999999375</v>
       </c>
-      <c r="Q42" s="28">
+      <c r="Q42" s="29">
         <f t="shared" si="1"/>
         <v>-0.83999999999999631</v>
       </c>
-      <c r="R42" s="28">
+      <c r="R42" s="29">
         <f>R40-R$20</f>
         <v>-1.1700000000000017</v>
       </c>
-      <c r="S42" s="32" t="s">
+      <c r="S42" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="17">
         <f>$E$13-F42</f>
         <v>0.40000000000000568</v>
       </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="32"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="26"/>
     </row>
     <row r="44" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="23">
@@ -2476,7 +2538,7 @@
       <c r="P44" s="24"/>
       <c r="Q44" s="24"/>
       <c r="R44" s="24"/>
-      <c r="S44" s="32" t="s">
+      <c r="S44" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2498,46 +2560,46 @@
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
       <c r="R45" s="24"/>
-      <c r="S45" s="32"/>
+      <c r="S45" s="26"/>
     </row>
     <row r="46" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19">
+      <c r="B46" s="18">
         <f>B36+1</f>
         <v>3</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="22"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="31"/>
     </row>
     <row r="47" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="1">
@@ -2551,50 +2613,50 @@
         <f>D47*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G47" s="30" t="s">
+      <c r="G47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J47" s="30" t="s">
+      <c r="J47" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K47" s="30" t="s">
+      <c r="K47" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="30" t="s">
+      <c r="L47" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M47" s="30" t="s">
+      <c r="M47" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N47" s="30" t="s">
+      <c r="N47" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="30" t="s">
+      <c r="O47" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P47" s="30" t="s">
+      <c r="P47" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" s="30" t="s">
+      <c r="Q47" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R47" s="30" t="s">
+      <c r="R47" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S47" s="22"/>
+      <c r="S47" s="31"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="31">
+      <c r="B48" s="33">
         <f>STDEVA(G52:R53)</f>
         <v>0.41646783134529308</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="1">
@@ -2608,23 +2670,23 @@
         <f>D48*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="22"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="31"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="1">
@@ -2638,25 +2700,25 @@
         <f>D49*$F$8</f>
         <v>100</v>
       </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="15"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="14"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="1">
@@ -2670,52 +2732,52 @@
         <f>D50*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="27">
         <v>86.51</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="27">
         <v>90.44</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="27">
         <v>75.790000000000006</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="27">
         <v>71.349999999999994</v>
       </c>
-      <c r="K50" s="26">
+      <c r="K50" s="27">
         <v>67.23</v>
       </c>
-      <c r="L50" s="26">
+      <c r="L50" s="27">
         <v>68.599999999999994</v>
       </c>
-      <c r="M50" s="26">
+      <c r="M50" s="27">
         <v>82.17</v>
       </c>
-      <c r="N50" s="26">
+      <c r="N50" s="27">
         <v>80.13</v>
       </c>
-      <c r="O50" s="26">
+      <c r="O50" s="27">
         <v>72.209999999999994</v>
       </c>
-      <c r="P50" s="26">
+      <c r="P50" s="27">
         <v>99.65</v>
       </c>
-      <c r="Q50" s="26">
+      <c r="Q50" s="27">
         <v>63.38</v>
       </c>
-      <c r="R50" s="26">
+      <c r="R50" s="27">
         <v>84.93</v>
       </c>
-      <c r="S50" s="32" t="s">
+      <c r="S50" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="27">
+      <c r="B51" s="28">
         <f>B54-$B$24</f>
         <v>-11.099999999999909</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="1">
@@ -2729,109 +2791,109 @@
         <f>D51*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="32"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="26"/>
     </row>
     <row r="52" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
+      <c r="B52" s="28"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F52" s="7">
         <f>SUM(F47:F51)</f>
         <v>100</v>
       </c>
-      <c r="G52" s="28">
+      <c r="G52" s="29">
         <f>G50-G$20</f>
         <v>-0.96999999999999886</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="29">
         <f t="shared" ref="H52:R52" si="2">H50-H$20</f>
         <v>-0.95000000000000284</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="29">
         <f t="shared" si="2"/>
         <v>-0.79999999999999716</v>
       </c>
-      <c r="J52" s="28">
+      <c r="J52" s="29">
         <f t="shared" si="2"/>
         <v>-2.0000000000010232E-2</v>
       </c>
-      <c r="K52" s="28">
+      <c r="K52" s="29">
         <f t="shared" si="2"/>
         <v>-0.95000000000000284</v>
       </c>
-      <c r="L52" s="28">
+      <c r="L52" s="29">
         <f t="shared" si="2"/>
         <v>-0.79000000000000625</v>
       </c>
-      <c r="M52" s="28">
+      <c r="M52" s="29">
         <f t="shared" si="2"/>
         <v>-1.4200000000000017</v>
       </c>
-      <c r="N52" s="28">
+      <c r="N52" s="29">
         <f t="shared" si="2"/>
         <v>-0.89000000000000057</v>
       </c>
-      <c r="O52" s="28">
+      <c r="O52" s="29">
         <f t="shared" si="2"/>
         <v>-0.64000000000000057</v>
       </c>
-      <c r="P52" s="28">
+      <c r="P52" s="29">
         <f t="shared" si="2"/>
         <v>-1.7299999999999898</v>
       </c>
-      <c r="Q52" s="28">
+      <c r="Q52" s="29">
         <f t="shared" si="2"/>
         <v>-0.77999999999999403</v>
       </c>
-      <c r="R52" s="28">
+      <c r="R52" s="29">
         <f t="shared" si="2"/>
         <v>-1.1599999999999966</v>
       </c>
-      <c r="S52" s="32" t="s">
+      <c r="S52" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="7">
         <f>$E$13-F52</f>
         <v>0</v>
       </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="32"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="26"/>
     </row>
     <row r="54" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
@@ -2853,14 +2915,14 @@
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
       <c r="M54" s="24" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N54" s="24"/>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="24"/>
-      <c r="S54" s="32" t="s">
+      <c r="S54" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2882,46 +2944,46 @@
       <c r="P55" s="24"/>
       <c r="Q55" s="24"/>
       <c r="R55" s="24"/>
-      <c r="S55" s="32"/>
+      <c r="S55" s="26"/>
     </row>
     <row r="56" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="19">
+      <c r="B56" s="18">
         <f>B46+1</f>
         <v>4</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="22"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="31"/>
     </row>
     <row r="57" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="1">
@@ -2935,50 +2997,50 @@
         <f>D57*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G57" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H57" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="30" t="s">
+      <c r="I57" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J57" s="30" t="s">
+      <c r="J57" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="30" t="s">
+      <c r="K57" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L57" s="30" t="s">
+      <c r="L57" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M57" s="30" t="s">
+      <c r="M57" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N57" s="30" t="s">
+      <c r="N57" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O57" s="30" t="s">
+      <c r="O57" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P57" s="30" t="s">
+      <c r="P57" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Q57" s="30" t="s">
+      <c r="Q57" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R57" s="30" t="s">
+      <c r="R57" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S57" s="22"/>
+      <c r="S57" s="31"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="31">
+      <c r="B58" s="33">
         <f>STDEVA(G62:R63)</f>
         <v>0.13545378279223655</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="39" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="1">
@@ -2992,23 +3054,23 @@
         <f>D58*$F$6</f>
         <v>100</v>
       </c>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="22"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="31"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="31"/>
-      <c r="C59" s="12" t="s">
+      <c r="B59" s="33"/>
+      <c r="C59" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="1">
@@ -3022,25 +3084,25 @@
         <f>D59*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="15"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="14"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="1">
@@ -3054,52 +3116,52 @@
         <f>D60*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="27">
         <v>87.13</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H60" s="27">
         <v>90.85</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I60" s="27">
         <v>76.14</v>
       </c>
-      <c r="J60" s="26">
+      <c r="J60" s="27">
         <v>71.319999999999993</v>
       </c>
-      <c r="K60" s="26">
+      <c r="K60" s="27">
         <v>67.91</v>
       </c>
-      <c r="L60" s="26">
+      <c r="L60" s="27">
         <v>69.09</v>
       </c>
-      <c r="M60" s="26">
+      <c r="M60" s="27">
         <v>83.21</v>
       </c>
-      <c r="N60" s="26">
+      <c r="N60" s="27">
         <v>80.540000000000006</v>
       </c>
-      <c r="O60" s="26">
+      <c r="O60" s="27">
         <v>72.36</v>
       </c>
-      <c r="P60" s="26">
+      <c r="P60" s="27">
         <v>100.95</v>
       </c>
-      <c r="Q60" s="26">
+      <c r="Q60" s="27">
         <v>63.82</v>
       </c>
-      <c r="R60" s="26">
+      <c r="R60" s="27">
         <v>85.58</v>
       </c>
-      <c r="S60" s="32" t="s">
+      <c r="S60" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="27">
+      <c r="B61" s="28">
         <f>B64-$B$24</f>
         <v>-4.5899999999998045</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="1">
@@ -3113,109 +3175,109 @@
         <f>D61*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="32"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="26"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
+      <c r="B62" s="28"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F62" s="7">
         <f>SUM(F57:F61)</f>
         <v>100</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="29">
         <f>G60-G$20</f>
         <v>-0.35000000000000853</v>
       </c>
-      <c r="H62" s="28">
+      <c r="H62" s="29">
         <f t="shared" ref="H62:R62" si="3">H60-H$20</f>
         <v>-0.54000000000000625</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="29">
         <f t="shared" si="3"/>
         <v>-0.45000000000000284</v>
       </c>
-      <c r="J62" s="28">
+      <c r="J62" s="29">
         <f t="shared" si="3"/>
         <v>-5.0000000000011369E-2</v>
       </c>
-      <c r="K62" s="28">
+      <c r="K62" s="29">
         <f t="shared" si="3"/>
         <v>-0.27000000000001023</v>
       </c>
-      <c r="L62" s="28">
+      <c r="L62" s="29">
         <f t="shared" si="3"/>
         <v>-0.29999999999999716</v>
       </c>
-      <c r="M62" s="28">
+      <c r="M62" s="29">
         <f t="shared" si="3"/>
         <v>-0.38000000000000966</v>
       </c>
-      <c r="N62" s="28">
+      <c r="N62" s="29">
         <f t="shared" si="3"/>
         <v>-0.47999999999998977</v>
       </c>
-      <c r="O62" s="28">
+      <c r="O62" s="29">
         <f t="shared" si="3"/>
         <v>-0.48999999999999488</v>
       </c>
-      <c r="P62" s="28">
+      <c r="P62" s="29">
         <f t="shared" si="3"/>
         <v>-0.42999999999999261</v>
       </c>
-      <c r="Q62" s="28">
+      <c r="Q62" s="29">
         <f t="shared" si="3"/>
         <v>-0.33999999999999631</v>
       </c>
-      <c r="R62" s="28">
+      <c r="R62" s="29">
         <f t="shared" si="3"/>
         <v>-0.51000000000000512</v>
       </c>
-      <c r="S62" s="32" t="s">
+      <c r="S62" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13" t="s">
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="7">
         <f>$E$13-F62</f>
         <v>0</v>
       </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="32"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="26"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="23">
@@ -3223,13 +3285,13 @@
         <v>948.9000000000002</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
@@ -3244,7 +3306,7 @@
       <c r="P64" s="24"/>
       <c r="Q64" s="24"/>
       <c r="R64" s="24"/>
-      <c r="S64" s="32" t="s">
+      <c r="S64" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3266,46 +3328,46 @@
       <c r="P65" s="24"/>
       <c r="Q65" s="24"/>
       <c r="R65" s="24"/>
-      <c r="S65" s="32"/>
+      <c r="S65" s="26"/>
     </row>
     <row r="66" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="19">
+      <c r="B66" s="18">
         <f>B56+1</f>
         <v>5</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="22"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="31"/>
     </row>
     <row r="67" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="1">
@@ -3319,50 +3381,50 @@
         <f>D67*$F$5</f>
         <v>100</v>
       </c>
-      <c r="G67" s="30" t="s">
+      <c r="G67" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="30" t="s">
+      <c r="H67" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="30" t="s">
+      <c r="I67" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J67" s="30" t="s">
+      <c r="J67" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K67" s="30" t="s">
+      <c r="K67" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L67" s="30" t="s">
+      <c r="L67" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M67" s="30" t="s">
+      <c r="M67" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N67" s="30" t="s">
+      <c r="N67" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O67" s="30" t="s">
+      <c r="O67" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P67" s="30" t="s">
+      <c r="P67" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Q67" s="30" t="s">
+      <c r="Q67" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R67" s="30" t="s">
+      <c r="R67" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S67" s="22"/>
+      <c r="S67" s="31"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="31">
+      <c r="B68" s="33">
         <f>STDEVA(G72:R73)</f>
         <v>7.7869354457555204E-2</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1">
@@ -3376,23 +3438,23 @@
         <f>D68*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="22"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="31"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="31"/>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="33"/>
+      <c r="C69" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="1">
@@ -3406,25 +3468,25 @@
         <f>D69*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="15"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="14"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="1">
@@ -3438,52 +3500,52 @@
         <f>D70*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G70" s="26">
+      <c r="G70" s="27">
         <v>87.23</v>
       </c>
-      <c r="H70" s="26">
+      <c r="H70" s="27">
         <v>91.12</v>
       </c>
-      <c r="I70" s="26">
+      <c r="I70" s="27">
         <v>76.34</v>
       </c>
-      <c r="J70" s="26">
+      <c r="J70" s="27">
         <v>71.400000000000006</v>
       </c>
-      <c r="K70" s="26">
+      <c r="K70" s="27">
         <v>67.98</v>
       </c>
-      <c r="L70" s="26">
+      <c r="L70" s="27">
         <v>69.19</v>
       </c>
-      <c r="M70" s="26">
+      <c r="M70" s="27">
         <v>83.43</v>
       </c>
-      <c r="N70" s="26">
+      <c r="N70" s="27">
         <v>80.819999999999993</v>
       </c>
-      <c r="O70" s="26">
+      <c r="O70" s="27">
         <v>72.63</v>
       </c>
-      <c r="P70" s="26">
+      <c r="P70" s="27">
         <v>101.19</v>
       </c>
-      <c r="Q70" s="26">
+      <c r="Q70" s="27">
         <v>64.02</v>
       </c>
-      <c r="R70" s="26">
+      <c r="R70" s="27">
         <v>85.92</v>
       </c>
-      <c r="S70" s="32" t="s">
+      <c r="S70" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B71" s="27">
+      <c r="B71" s="28">
         <f>B74-$B$24</f>
         <v>-2.220000000000141</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="1">
@@ -3497,109 +3559,109 @@
         <f>D71*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="32"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="26"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13" t="s">
+      <c r="B72" s="28"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F72" s="7">
         <f>SUM(F67:F71)</f>
         <v>100</v>
       </c>
-      <c r="G72" s="28">
+      <c r="G72" s="29">
         <f>G70-G$20</f>
         <v>-0.25</v>
       </c>
-      <c r="H72" s="28">
+      <c r="H72" s="29">
         <f t="shared" ref="H72:R72" si="4">H70-H$20</f>
         <v>-0.26999999999999602</v>
       </c>
-      <c r="I72" s="28">
+      <c r="I72" s="29">
         <f t="shared" si="4"/>
         <v>-0.25</v>
       </c>
-      <c r="J72" s="28">
+      <c r="J72" s="29">
         <f t="shared" si="4"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="K72" s="28">
+      <c r="K72" s="29">
         <f t="shared" si="4"/>
         <v>-0.20000000000000284</v>
       </c>
-      <c r="L72" s="28">
+      <c r="L72" s="29">
         <f t="shared" si="4"/>
         <v>-0.20000000000000284</v>
       </c>
-      <c r="M72" s="28">
+      <c r="M72" s="29">
         <f t="shared" si="4"/>
         <v>-0.15999999999999659</v>
       </c>
-      <c r="N72" s="28">
+      <c r="N72" s="29">
         <f t="shared" si="4"/>
         <v>-0.20000000000000284</v>
       </c>
-      <c r="O72" s="28">
+      <c r="O72" s="29">
         <f t="shared" si="4"/>
         <v>-0.21999999999999886</v>
       </c>
-      <c r="P72" s="28">
+      <c r="P72" s="29">
         <f t="shared" si="4"/>
         <v>-0.18999999999999773</v>
       </c>
-      <c r="Q72" s="28">
+      <c r="Q72" s="29">
         <f t="shared" si="4"/>
         <v>-0.14000000000000057</v>
       </c>
-      <c r="R72" s="28">
+      <c r="R72" s="29">
         <f t="shared" si="4"/>
         <v>-0.17000000000000171</v>
       </c>
-      <c r="S72" s="32" t="s">
+      <c r="S72" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13" t="s">
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F73" s="7">
         <f>$E$13-F72</f>
         <v>0</v>
       </c>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="32"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="26"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="23">
@@ -3607,13 +3669,13 @@
         <v>951.26999999999987</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
@@ -3628,7 +3690,7 @@
       <c r="P74" s="24"/>
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
-      <c r="S74" s="32" t="s">
+      <c r="S74" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3650,20 +3712,282 @@
       <c r="P75" s="24"/>
       <c r="Q75" s="24"/>
       <c r="R75" s="24"/>
-      <c r="S75" s="32"/>
+      <c r="S75" s="26"/>
     </row>
     <row r="79" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="286">
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:F55"/>
+    <mergeCell ref="G54:L55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="M54:R55"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="G46:R46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="C34:F35"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="M34:R35"/>
+    <mergeCell ref="C44:F45"/>
+    <mergeCell ref="G44:L45"/>
+    <mergeCell ref="M44:R45"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G36:R36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="C24:F25"/>
+    <mergeCell ref="G24:L25"/>
+    <mergeCell ref="M24:R25"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="G16:R16"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G26:R26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="S16:S19"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="S46:S48"/>
+    <mergeCell ref="G56:R56"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="Q57:Q59"/>
+    <mergeCell ref="R57:R59"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="R37:R39"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="S60:S61"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="G66:R66"/>
+    <mergeCell ref="S66:S68"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="P67:P69"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="R67:R69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:F65"/>
+    <mergeCell ref="G64:L65"/>
+    <mergeCell ref="M64:R65"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="C74:F75"/>
     <mergeCell ref="G74:L75"/>
@@ -3688,387 +4012,125 @@
     <mergeCell ref="R72:R73"/>
     <mergeCell ref="S72:S73"/>
     <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:F65"/>
-    <mergeCell ref="G64:L65"/>
-    <mergeCell ref="M64:R65"/>
-    <mergeCell ref="S64:S65"/>
-    <mergeCell ref="G66:R66"/>
-    <mergeCell ref="S66:S68"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="N67:N69"/>
-    <mergeCell ref="O67:O69"/>
-    <mergeCell ref="P67:P69"/>
-    <mergeCell ref="Q67:Q69"/>
-    <mergeCell ref="R67:R69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:R61"/>
-    <mergeCell ref="S60:S61"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="S46:S48"/>
-    <mergeCell ref="G56:R56"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="Q57:Q59"/>
-    <mergeCell ref="R57:R59"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="S16:S19"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="G26:R26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="C24:F25"/>
-    <mergeCell ref="G24:L25"/>
-    <mergeCell ref="M24:R25"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="G16:R16"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G36:R36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="O37:O39"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="Q37:Q39"/>
-    <mergeCell ref="R37:R39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="C34:F35"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="M34:R35"/>
-    <mergeCell ref="C44:F45"/>
-    <mergeCell ref="G44:L45"/>
-    <mergeCell ref="M44:R45"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="G46:R46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:F55"/>
-    <mergeCell ref="G54:L55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="M54:R55"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="S50:S51"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
   </mergeCells>
   <conditionalFormatting sqref="G22:R23">
-    <cfRule type="cellIs" dxfId="76" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22">
-    <cfRule type="cellIs" dxfId="74" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B42">
-    <cfRule type="cellIs" dxfId="72" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:R43">
-    <cfRule type="cellIs" dxfId="70" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:R53">
-    <cfRule type="cellIs" dxfId="68" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:R33">
-    <cfRule type="cellIs" dxfId="66" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="cellIs" dxfId="64" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B52">
-    <cfRule type="cellIs" dxfId="62" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:R63">
-    <cfRule type="cellIs" dxfId="60" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="58" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:R73">
-    <cfRule type="cellIs" dxfId="56" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72">
-    <cfRule type="cellIs" dxfId="54" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="14" operator="notEqual">
       <formula>E57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E61">
-    <cfRule type="cellIs" dxfId="51" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="13" operator="notEqual">
       <formula>E47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E51">
-    <cfRule type="cellIs" dxfId="50" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="12" operator="notEqual">
       <formula>E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E41">
-    <cfRule type="cellIs" dxfId="49" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="11" operator="notEqual">
       <formula>E27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E31">
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="notEqual">
       <formula>E17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4081,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00ADB1D-A999-4C63-97B9-F8B611698B15}">
   <dimension ref="B1:X87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4095,14 +4157,14 @@
   <sheetData>
     <row r="1" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
@@ -4122,7 +4184,7 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4134,7 +4196,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -4150,9 +4212,10 @@
       <c r="F5" s="8">
         <v>10</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>2.1</v>
       </c>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -4168,9 +4231,10 @@
       <c r="F6" s="8">
         <v>20</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>1.95</v>
       </c>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -4180,14 +4244,15 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0.01</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4196,26 +4261,28 @@
       <c r="F8" s="8">
         <v>5</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>2</v>
       </c>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0.1</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4224,26 +4291,28 @@
       <c r="F10" s="8">
         <v>1.18</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>100</v>
       </c>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.5</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -4252,99 +4321,100 @@
       <c r="F12" s="8">
         <v>1.2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>743</v>
       </c>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="35">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="37">
         <v>100</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
-        <v>0</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="22"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1">
@@ -4358,50 +4428,50 @@
         <f>D17*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="30" t="s">
+      <c r="P17" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="30" t="s">
+      <c r="Q17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="30" t="s">
+      <c r="R17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="22"/>
+      <c r="S17" s="31"/>
     </row>
     <row r="18" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31">
+      <c r="B18" s="33">
         <f>STDEVA(G22:R23)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1">
@@ -4415,23 +4485,23 @@
         <f>D18*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="22"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="31"/>
     </row>
     <row r="19" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1">
@@ -4445,25 +4515,25 @@
         <f>D19*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="22"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="31"/>
     </row>
     <row r="20" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1">
@@ -4477,51 +4547,51 @@
         <f>D20*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="27">
         <v>87.48</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="27">
         <v>91.39</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="27">
         <v>76.59</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="27">
         <v>71.37</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="27">
         <v>68.180000000000007</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="27">
         <v>69.39</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="27">
         <v>83.59</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="27">
         <v>81.02</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="27">
         <v>72.849999999999994</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="27">
         <v>101.38</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="27">
         <v>64.16</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="27">
         <v>86.09</v>
       </c>
-      <c r="S20" s="32" t="s">
+      <c r="S20" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="28">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="1">
@@ -4535,97 +4605,97 @@
         <f>D21*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="32"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="26"/>
     </row>
     <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <f>SUM(F17:F21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="36">
-        <v>0</v>
-      </c>
-      <c r="H22" s="36">
-        <v>0</v>
-      </c>
-      <c r="I22" s="36">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36">
-        <v>0</v>
-      </c>
-      <c r="K22" s="36">
-        <v>0</v>
-      </c>
-      <c r="L22" s="36">
-        <v>0</v>
-      </c>
-      <c r="M22" s="36">
-        <v>0</v>
-      </c>
-      <c r="N22" s="36">
-        <v>0</v>
-      </c>
-      <c r="O22" s="36">
-        <v>0</v>
-      </c>
-      <c r="P22" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="36">
-        <v>0</v>
-      </c>
-      <c r="R22" s="36">
-        <v>0</v>
-      </c>
-      <c r="S22" s="32" t="s">
+      <c r="G22" s="34">
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+      <c r="I22" s="34">
+        <v>0</v>
+      </c>
+      <c r="J22" s="34">
+        <v>0</v>
+      </c>
+      <c r="K22" s="34">
+        <v>0</v>
+      </c>
+      <c r="L22" s="34">
+        <v>0</v>
+      </c>
+      <c r="M22" s="34">
+        <v>0</v>
+      </c>
+      <c r="N22" s="34">
+        <v>0</v>
+      </c>
+      <c r="O22" s="34">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="34">
+        <v>0</v>
+      </c>
+      <c r="R22" s="34">
+        <v>0</v>
+      </c>
+      <c r="S22" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <f>$E$13-F22</f>
         <v>100</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="32"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="26"/>
     </row>
     <row r="24" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23">
@@ -4633,13 +4703,13 @@
         <v>953.49</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -4647,14 +4717,14 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
-      <c r="S24" s="32" t="s">
+      <c r="S24" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4676,46 +4746,46 @@
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
-      <c r="S25" s="32"/>
+      <c r="S25" s="26"/>
     </row>
     <row r="26" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19">
-        <f>B36+1</f>
+      <c r="B26" s="18">
+        <f>B16+1</f>
         <v>1</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="22"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="31"/>
     </row>
     <row r="27" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="1">
@@ -4729,50 +4799,50 @@
         <f>D27*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="30" t="s">
+      <c r="N27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="30" t="s">
+      <c r="O27" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="30" t="s">
+      <c r="P27" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" s="30" t="s">
+      <c r="Q27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="30" t="s">
+      <c r="R27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="22"/>
+      <c r="S27" s="31"/>
     </row>
     <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="31">
+      <c r="B28" s="33">
         <f>STDEVA(G32:R33)</f>
-        <v>0.41646783134529308</v>
-      </c>
-      <c r="C28" s="12" t="s">
+        <v>0.41668606015472887</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1">
@@ -4786,114 +4856,114 @@
         <f>D28*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="22"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="31"/>
     </row>
     <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E29" s="9">
         <f>D29*$D$8+$G$8</f>
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F29" s="8">
         <f>D29*$F$8</f>
-        <v>100</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="14"/>
     </row>
     <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E30" s="9">
         <f>D30*$D$10+$G$10</f>
-        <v>100</v>
+        <v>108.4</v>
       </c>
       <c r="F30" s="8">
         <f>D30*$F$10</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="26">
-        <v>86.51</v>
-      </c>
-      <c r="H30" s="26">
-        <v>90.44</v>
-      </c>
-      <c r="I30" s="26">
-        <v>75.790000000000006</v>
-      </c>
-      <c r="J30" s="26">
-        <v>71.349999999999994</v>
-      </c>
-      <c r="K30" s="26">
-        <v>67.23</v>
-      </c>
-      <c r="L30" s="26">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="M30" s="26">
-        <v>82.17</v>
-      </c>
-      <c r="N30" s="26">
-        <v>80.13</v>
-      </c>
-      <c r="O30" s="26">
-        <v>72.209999999999994</v>
-      </c>
-      <c r="P30" s="26">
-        <v>99.65</v>
-      </c>
-      <c r="Q30" s="26">
-        <v>63.38</v>
-      </c>
-      <c r="R30" s="26">
-        <v>84.93</v>
-      </c>
-      <c r="S30" s="32" t="s">
+        <v>99.11999999999999</v>
+      </c>
+      <c r="G30" s="27">
+        <v>86.48</v>
+      </c>
+      <c r="H30" s="27">
+        <v>90.46</v>
+      </c>
+      <c r="I30" s="27">
+        <v>75.87</v>
+      </c>
+      <c r="J30" s="27">
+        <v>71.38</v>
+      </c>
+      <c r="K30" s="27">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="L30" s="27">
+        <v>68.55</v>
+      </c>
+      <c r="M30" s="27">
+        <v>82.22</v>
+      </c>
+      <c r="N30" s="27">
+        <v>80.09</v>
+      </c>
+      <c r="O30" s="27">
+        <v>72.25</v>
+      </c>
+      <c r="P30" s="27">
+        <v>99.68</v>
+      </c>
+      <c r="Q30" s="27">
+        <v>63.3</v>
+      </c>
+      <c r="R30" s="27">
+        <v>84.9</v>
+      </c>
+      <c r="S30" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27">
+      <c r="B31" s="28">
         <f>B34-B24</f>
-        <v>-11.099999999999909</v>
-      </c>
-      <c r="C31" s="12" t="s">
+        <v>-11.100000000000023</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1">
@@ -4907,134 +4977,138 @@
         <f>D31*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="32"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="26"/>
     </row>
     <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="17">
         <f>SUM(F27:F31)</f>
-        <v>100</v>
-      </c>
-      <c r="G32" s="28">
-        <f>G30-G20</f>
-        <v>-0.96999999999999886</v>
-      </c>
-      <c r="H32" s="28">
-        <f t="shared" ref="H32:R32" si="0">H30-H20</f>
-        <v>-0.95000000000000284</v>
-      </c>
-      <c r="I32" s="28">
+        <v>99.11999999999999</v>
+      </c>
+      <c r="G32" s="29">
+        <f>G30-G$20</f>
+        <v>-1</v>
+      </c>
+      <c r="H32" s="29">
+        <f t="shared" ref="H32:R32" si="0">H30-H$20</f>
+        <v>-0.93000000000000682</v>
+      </c>
+      <c r="I32" s="29">
         <f t="shared" si="0"/>
-        <v>-0.79999999999999716</v>
-      </c>
-      <c r="J32" s="28">
+        <v>-0.71999999999999886</v>
+      </c>
+      <c r="J32" s="29">
         <f t="shared" si="0"/>
-        <v>-2.0000000000010232E-2</v>
-      </c>
-      <c r="K32" s="28">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="K32" s="29">
         <f t="shared" si="0"/>
-        <v>-0.95000000000000284</v>
-      </c>
-      <c r="L32" s="28">
+        <v>-0.97000000000001307</v>
+      </c>
+      <c r="L32" s="29">
         <f t="shared" si="0"/>
-        <v>-0.79000000000000625</v>
-      </c>
-      <c r="M32" s="28">
+        <v>-0.84000000000000341</v>
+      </c>
+      <c r="M32" s="29">
         <f t="shared" si="0"/>
-        <v>-1.4200000000000017</v>
-      </c>
-      <c r="N32" s="28">
+        <v>-1.3700000000000045</v>
+      </c>
+      <c r="N32" s="29">
         <f t="shared" si="0"/>
-        <v>-0.89000000000000057</v>
-      </c>
-      <c r="O32" s="28">
+        <v>-0.92999999999999261</v>
+      </c>
+      <c r="O32" s="29">
         <f t="shared" si="0"/>
-        <v>-0.64000000000000057</v>
-      </c>
-      <c r="P32" s="28">
+        <v>-0.59999999999999432</v>
+      </c>
+      <c r="P32" s="29">
         <f t="shared" si="0"/>
-        <v>-1.7299999999999898</v>
-      </c>
-      <c r="Q32" s="28">
+        <v>-1.6999999999999886</v>
+      </c>
+      <c r="Q32" s="29">
         <f t="shared" si="0"/>
-        <v>-0.77999999999999403</v>
-      </c>
-      <c r="R32" s="28">
+        <v>-0.85999999999999943</v>
+      </c>
+      <c r="R32" s="29">
         <f t="shared" si="0"/>
-        <v>-1.1599999999999966</v>
-      </c>
-      <c r="S32" s="32" t="s">
+        <v>-1.1899999999999977</v>
+      </c>
+      <c r="S32" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="17">
         <f>$E$13-F32</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="32"/>
+        <v>0.88000000000000966</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="26"/>
     </row>
     <row r="34" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="23">
         <f>SUM(G30:R31)</f>
-        <v>942.3900000000001</v>
+        <v>942.39</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="G34" s="25" t="s">
+        <v>47</v>
+      </c>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
-      <c r="M34" s="24"/>
+      <c r="M34" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
-      <c r="S34" s="32" t="s">
+      <c r="S34" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5056,52 +5130,1390 @@
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
-      <c r="S35" s="32"/>
-    </row>
-    <row r="36" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="S35" s="26"/>
+    </row>
+    <row r="36" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="31"/>
+    </row>
+    <row r="37" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <f>D37*$D$5+$G$5</f>
+        <v>2.1</v>
+      </c>
+      <c r="F37" s="8">
+        <f>D37*$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37" s="31"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="33">
+        <f>STDEVA(G42:R43)</f>
+        <v>2.5936986577613744E-2</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <f>D38*$D$6+$G$6</f>
+        <v>1.95</v>
+      </c>
+      <c r="F38" s="8">
+        <f>D38*$F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="31"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
+      <c r="C39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10</v>
+      </c>
+      <c r="E39" s="9">
+        <f>D39*$D$8+$G$8</f>
+        <v>2.1</v>
+      </c>
+      <c r="F39" s="8">
+        <f>D39*$F$8</f>
+        <v>50</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="14"/>
+    </row>
+    <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42</v>
+      </c>
+      <c r="E40" s="9">
+        <f>D40*$D$10+$G$10</f>
+        <v>104.2</v>
+      </c>
+      <c r="F40" s="8">
+        <f>D40*$F$10</f>
+        <v>49.559999999999995</v>
+      </c>
+      <c r="G40" s="27">
+        <v>86.47</v>
+      </c>
+      <c r="H40" s="27">
+        <v>90.42</v>
+      </c>
+      <c r="I40" s="27">
+        <v>75.8</v>
+      </c>
+      <c r="J40" s="27">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="K40" s="27">
+        <v>67.19</v>
+      </c>
+      <c r="L40" s="27">
+        <v>68.55</v>
+      </c>
+      <c r="M40" s="27">
+        <v>82.16</v>
+      </c>
+      <c r="N40" s="27">
+        <v>80.08</v>
+      </c>
+      <c r="O40" s="27">
+        <v>72.2</v>
+      </c>
+      <c r="P40" s="27">
+        <v>99.62</v>
+      </c>
+      <c r="Q40" s="27">
+        <v>63.31</v>
+      </c>
+      <c r="R40" s="27">
+        <v>84.88</v>
+      </c>
+      <c r="S40" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="28">
+        <f>B44-B34</f>
+        <v>-0.35999999999989996</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
+        <f>$G$12-D41*$D$12</f>
+        <v>743</v>
+      </c>
+      <c r="F41" s="8">
+        <f>D41*$F$12</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="26"/>
+    </row>
+    <row r="42" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="28"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="17">
+        <f>SUM(F37:F41)</f>
+        <v>99.56</v>
+      </c>
+      <c r="G42" s="29">
+        <f t="shared" ref="G42:Q42" si="1">G40-G30</f>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="H42" s="29">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999992042E-2</v>
+      </c>
+      <c r="I42" s="29">
+        <f t="shared" si="1"/>
+        <v>-7.000000000000739E-2</v>
+      </c>
+      <c r="J42" s="29">
+        <f t="shared" si="1"/>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="K42" s="29">
+        <f t="shared" si="1"/>
+        <v>-1.9999999999996021E-2</v>
+      </c>
+      <c r="L42" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="29">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000002274E-2</v>
+      </c>
+      <c r="N42" s="29">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="O42" s="29">
+        <f t="shared" si="1"/>
+        <v>-4.9999999999997158E-2</v>
+      </c>
+      <c r="P42" s="29">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000002274E-2</v>
+      </c>
+      <c r="Q42" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="R42" s="29">
+        <f>R40-R30</f>
+        <v>-2.0000000000010232E-2</v>
+      </c>
+      <c r="S42" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="17">
+        <f>$E$13-F42</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="26"/>
+    </row>
+    <row r="44" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23">
+        <f>SUM(G40:R41)</f>
+        <v>942.03000000000009</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="26"/>
+    </row>
+    <row r="46" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="18">
+        <f>B36+1</f>
+        <v>3</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="31"/>
+    </row>
+    <row r="47" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <f>D47*$D$5+$G$5</f>
+        <v>2.1</v>
+      </c>
+      <c r="F47" s="8">
+        <f>D47*$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="31"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="33">
+        <f>STDEVA(G52:R53)</f>
+        <v>0.10323186611612439</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9">
+        <f>D48*$D$6+$G$6</f>
+        <v>1.95</v>
+      </c>
+      <c r="F48" s="8">
+        <f>D48*$F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="31"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="33"/>
+      <c r="C49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7</v>
+      </c>
+      <c r="E49" s="9">
+        <f>D49*$D$8+$G$8</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F49" s="8">
+        <f>D49*$F$8</f>
+        <v>35</v>
+      </c>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="14"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
+        <v>28</v>
+      </c>
+      <c r="E50" s="9">
+        <f>D50*$D$10+$G$10</f>
+        <v>102.8</v>
+      </c>
+      <c r="F50" s="8">
+        <f>D50*$F$10</f>
+        <v>33.04</v>
+      </c>
+      <c r="G50" s="27">
+        <v>86.46</v>
+      </c>
+      <c r="H50" s="27">
+        <v>90.38</v>
+      </c>
+      <c r="I50" s="27">
+        <v>75.73</v>
+      </c>
+      <c r="J50" s="27">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="K50" s="27">
+        <v>67.3</v>
+      </c>
+      <c r="L50" s="27">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M50" s="27">
+        <v>82.32</v>
+      </c>
+      <c r="N50" s="27">
+        <v>80.05</v>
+      </c>
+      <c r="O50" s="27">
+        <v>72.09</v>
+      </c>
+      <c r="P50" s="27">
+        <v>99.85</v>
+      </c>
+      <c r="Q50" s="27">
+        <v>63.31</v>
+      </c>
+      <c r="R50" s="27">
+        <v>84.89</v>
+      </c>
+      <c r="S50" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="28">
+        <f>B54-B44</f>
+        <v>0.20999999999980901</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1">
+        <v>26</v>
+      </c>
+      <c r="E51" s="9">
+        <f>$G$12-D51*$D$12</f>
+        <v>730</v>
+      </c>
+      <c r="F51" s="8">
+        <f>D51*$F$12</f>
+        <v>31.2</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="26"/>
+    </row>
+    <row r="52" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="28"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="17">
+        <f>SUM(F47:F51)</f>
+        <v>99.24</v>
+      </c>
+      <c r="G52" s="29">
+        <f t="shared" ref="G52:Q52" si="2">G50-G40</f>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="H52" s="29">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000006253E-2</v>
+      </c>
+      <c r="I52" s="29">
+        <f t="shared" si="2"/>
+        <v>-6.9999999999993179E-2</v>
+      </c>
+      <c r="J52" s="29">
+        <f t="shared" si="2"/>
+        <v>-8.99999999999892E-2</v>
+      </c>
+      <c r="K52" s="29">
+        <f t="shared" si="2"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="L52" s="29">
+        <f t="shared" si="2"/>
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="M52" s="29">
+        <f t="shared" si="2"/>
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="N52" s="29">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="O52" s="29">
+        <f t="shared" si="2"/>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="P52" s="29">
+        <f t="shared" si="2"/>
+        <v>0.22999999999998977</v>
+      </c>
+      <c r="Q52" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="29">
+        <f>R50-R40</f>
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="S52" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="17">
+        <f>$E$13-F52</f>
+        <v>0.76000000000000512</v>
+      </c>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="26"/>
+    </row>
+    <row r="54" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="23">
+        <f>SUM(G50:R51)</f>
+        <v>942.2399999999999</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="26"/>
+    </row>
+    <row r="56" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="18">
+        <f>B46+1</f>
+        <v>4</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="31"/>
+    </row>
+    <row r="57" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9">
+        <f>D57*$D$5+$G$5</f>
+        <v>2.105</v>
+      </c>
+      <c r="F57" s="8">
+        <f>D57*$F$5</f>
+        <v>10</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P57" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q57" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R57" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="31"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="33">
+        <f>STDEVA(G62:R63)</f>
+        <v>9.2650369179466202E-2</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9">
+        <f>D58*$D$6+$G$6</f>
+        <v>1.9549999999999998</v>
+      </c>
+      <c r="F58" s="8">
+        <f>D58*$F$6</f>
+        <v>20</v>
+      </c>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="31"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="33"/>
+      <c r="C59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="E59" s="9">
+        <f>D59*$D$8+$G$8</f>
+        <v>2.04</v>
+      </c>
+      <c r="F59" s="8">
+        <f>D59*$F$8</f>
+        <v>20</v>
+      </c>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="14"/>
+    </row>
+    <row r="60" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="1">
+        <v>20</v>
+      </c>
+      <c r="E60" s="9">
+        <f>D60*$D$10+$G$10</f>
+        <v>102</v>
+      </c>
+      <c r="F60" s="8">
+        <f>D60*$F$10</f>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="G60" s="27">
+        <v>86.66</v>
+      </c>
+      <c r="H60" s="27">
+        <v>90.55</v>
+      </c>
+      <c r="I60" s="27">
+        <v>75.87</v>
+      </c>
+      <c r="J60" s="27">
+        <v>71.290000000000006</v>
+      </c>
+      <c r="K60" s="27">
+        <v>67.5</v>
+      </c>
+      <c r="L60" s="27">
+        <v>68.760000000000005</v>
+      </c>
+      <c r="M60" s="27">
+        <v>82.64</v>
+      </c>
+      <c r="N60" s="27">
+        <v>80.23</v>
+      </c>
+      <c r="O60" s="27">
+        <v>72.19</v>
+      </c>
+      <c r="P60" s="27">
+        <v>100.23</v>
+      </c>
+      <c r="Q60" s="27">
+        <v>63.49</v>
+      </c>
+      <c r="R60" s="27">
+        <v>85.14</v>
+      </c>
+      <c r="S60" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="28">
+        <f>B64-B54</f>
+        <v>2.3100000000001728</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="1">
+        <v>22</v>
+      </c>
+      <c r="E61" s="9">
+        <f>$G$12-D61*$D$12</f>
+        <v>732</v>
+      </c>
+      <c r="F61" s="8">
+        <f>D61*$F$12</f>
+        <v>26.4</v>
+      </c>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="26"/>
+    </row>
+    <row r="62" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="28"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="17">
+        <f>SUM(F57:F61)</f>
+        <v>100</v>
+      </c>
+      <c r="G62" s="29">
+        <f t="shared" ref="G62:Q62" si="3">G60-G50</f>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="H62" s="29">
+        <f t="shared" si="3"/>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="I62" s="29">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="J62" s="29">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="K62" s="29">
+        <f t="shared" si="3"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="L62" s="29">
+        <f t="shared" si="3"/>
+        <v>0.1600000000000108</v>
+      </c>
+      <c r="M62" s="29">
+        <f t="shared" si="3"/>
+        <v>0.32000000000000739</v>
+      </c>
+      <c r="N62" s="29">
+        <f t="shared" si="3"/>
+        <v>0.18000000000000682</v>
+      </c>
+      <c r="O62" s="29">
+        <f t="shared" si="3"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="P62" s="29">
+        <f t="shared" si="3"/>
+        <v>0.38000000000000966</v>
+      </c>
+      <c r="Q62" s="29">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="R62" s="29">
+        <f>R60-R50</f>
+        <v>0.25</v>
+      </c>
+      <c r="S62" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="17">
+        <f>$E$13-F62</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="26"/>
+    </row>
+    <row r="64" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="23">
+        <f>SUM(G60:R61)</f>
+        <v>944.55000000000007</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="26"/>
+    </row>
+    <row r="70" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:F35"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="M34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
+  <mergeCells count="239">
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:F65"/>
+    <mergeCell ref="G64:L65"/>
+    <mergeCell ref="M64:R65"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="S60:S61"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="G56:R56"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="Q57:Q59"/>
+    <mergeCell ref="R57:R59"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:F55"/>
+    <mergeCell ref="G54:L55"/>
+    <mergeCell ref="M54:R55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="G46:R46"/>
+    <mergeCell ref="S46:S48"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:F45"/>
+    <mergeCell ref="G44:L45"/>
+    <mergeCell ref="M44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="G36:R36"/>
+    <mergeCell ref="S36:S38"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="R37:R39"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="G16:R16"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="S16:S19"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:F25"/>
+    <mergeCell ref="G24:L25"/>
+    <mergeCell ref="M24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G26:R26"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="R27:R29"/>
     <mergeCell ref="S32:S33"/>
     <mergeCell ref="R30:R31"/>
     <mergeCell ref="S30:S31"/>
@@ -5118,179 +6530,139 @@
     <mergeCell ref="N30:N31"/>
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G26:R26"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:F25"/>
-    <mergeCell ref="G24:L25"/>
-    <mergeCell ref="M24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="G16:R16"/>
-    <mergeCell ref="S16:S19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:F35"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="M34:R35"/>
+    <mergeCell ref="S34:S35"/>
   </mergeCells>
   <conditionalFormatting sqref="G22:R23">
-    <cfRule type="cellIs" dxfId="47" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22">
-    <cfRule type="cellIs" dxfId="45" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B42">
-    <cfRule type="cellIs" dxfId="43" priority="24" operator="lessThan">
+  <conditionalFormatting sqref="B31:B32">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72:R73">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B72">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="notEqual">
+      <formula>E57</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:R33">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E31">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="notEqual">
+      <formula>E17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B42">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:R43">
-    <cfRule type="cellIs" dxfId="41" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:R33">
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="lessThan">
+  <conditionalFormatting sqref="E37:E41">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="notEqual">
+      <formula>E27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B52">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B32">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="lessThan">
+  <conditionalFormatting sqref="E47:E51">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="notEqual">
+      <formula>E37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:R53">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G62:R63">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:R73">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="E57:E61">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>E47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62:R63">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="notEqual">
-      <formula>E57</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E31">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="notEqual">
-      <formula>E17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E61">
-    <cfRule type="cellIs" dxfId="26" priority="51" operator="notEqual">
-      <formula>E27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E41">
-    <cfRule type="cellIs" dxfId="25" priority="52" operator="notEqual">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/budget.xlsx
+++ b/budget.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zalan\Nextcloud\Dokumentumok\BME\Autonóm_járműirányítási_mérnök\Tárgyak\Vehicle Mechanics Fundamentals\optimum-lap-championship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120D500F-B12D-43FA-9C87-B1582A6036A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5E514B-8FAC-4C4B-9825-767B44C5ED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="39810" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11790" yWindow="0" windowWidth="39810" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Initial" sheetId="1" r:id="rId1"/>
-    <sheet name="No charts" sheetId="2" r:id="rId2"/>
+    <sheet name="1st stage" sheetId="1" r:id="rId1"/>
+    <sheet name="2nd stage" sheetId="2" r:id="rId2"/>
+    <sheet name="3rd stage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="74">
   <si>
     <t>Tire Data</t>
   </si>
@@ -251,6 +252,15 @@
   <si>
     <t>Changing the friction coefficients might not be a viable option. Very high cost, very low impact.</t>
   </si>
+  <si>
+    <t>This will be the setup I work back from and analyze the diagrams.</t>
+  </si>
+  <si>
+    <t>From the first and second stage of my development this is the best setup</t>
+  </si>
+  <si>
+    <t>Half of the budget is spent on Aero Efficiency and half of it is spent on the Power factor</t>
+  </si>
 </sst>
 </file>
 
@@ -319,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -375,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -435,6 +451,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,9 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,16 +478,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -480,14 +493,46 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="112">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -536,6 +581,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -552,16 +607,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -578,16 +623,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -604,16 +639,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -636,18 +661,188 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -674,6 +869,12 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -684,32 +885,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
+        <b/>
+        <i val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -1190,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23:AA29"/>
+    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,14 +1383,14 @@
   <sheetData>
     <row r="1" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1368,16 +1545,16 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="37">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="38">
         <v>100</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
@@ -1435,21 +1612,21 @@
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="40"/>
     </row>
     <row r="17" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
@@ -1469,46 +1646,46 @@
         <f>D17*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="31"/>
+      <c r="S17" s="40"/>
     </row>
     <row r="18" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33">
+      <c r="B18" s="35">
         <f>STDEVA(G22:R23)</f>
         <v>0</v>
       </c>
@@ -1526,22 +1703,22 @@
         <f>D18*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="31"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="40"/>
     </row>
     <row r="19" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>10</v>
       </c>
@@ -1556,19 +1733,19 @@
         <f>D19*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="31"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="40"/>
     </row>
     <row r="20" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
@@ -1588,40 +1765,40 @@
         <f>D20*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="30">
         <v>87.48</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="30">
         <v>91.39</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="30">
         <v>76.59</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="30">
         <v>71.37</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="30">
         <v>68.180000000000007</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="30">
         <v>69.39</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="30">
         <v>83.59</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="30">
         <v>81.02</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="30">
         <v>72.849999999999994</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="30">
         <v>101.38</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="30">
         <v>64.16</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="30">
         <v>86.09</v>
       </c>
       <c r="S20" s="26" t="s">
@@ -1629,7 +1806,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28">
+      <c r="B21" s="31">
         <v>0</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1646,22 +1823,22 @@
         <f>D21*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
       <c r="S21" s="26"/>
     </row>
     <row r="22" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
@@ -1671,40 +1848,40 @@
         <f>SUM(F17:F21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="34">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
-        <v>0</v>
-      </c>
-      <c r="I22" s="34">
-        <v>0</v>
-      </c>
-      <c r="J22" s="34">
-        <v>0</v>
-      </c>
-      <c r="K22" s="34">
-        <v>0</v>
-      </c>
-      <c r="L22" s="34">
-        <v>0</v>
-      </c>
-      <c r="M22" s="34">
-        <v>0</v>
-      </c>
-      <c r="N22" s="34">
-        <v>0</v>
-      </c>
-      <c r="O22" s="34">
-        <v>0</v>
-      </c>
-      <c r="P22" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="34">
-        <v>0</v>
-      </c>
-      <c r="R22" s="34">
+      <c r="G22" s="39">
+        <v>0</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39">
+        <v>0</v>
+      </c>
+      <c r="K22" s="39">
+        <v>0</v>
+      </c>
+      <c r="L22" s="39">
+        <v>0</v>
+      </c>
+      <c r="M22" s="39">
+        <v>0</v>
+      </c>
+      <c r="N22" s="39">
+        <v>0</v>
+      </c>
+      <c r="O22" s="39">
+        <v>0</v>
+      </c>
+      <c r="P22" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>0</v>
+      </c>
+      <c r="R22" s="39">
         <v>0</v>
       </c>
       <c r="S22" s="26" t="s">
@@ -1724,69 +1901,69 @@
         <f>$E$13-F22</f>
         <v>100</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23">
+      <c r="B24" s="27">
         <f>SUM(G20:R21)</f>
         <v>953.49</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="24" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
       <c r="S24" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,21 +1983,21 @@
       <c r="F26" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="31"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="40"/>
     </row>
     <row r="27" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
@@ -1840,46 +2017,46 @@
         <f>D27*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="32" t="s">
+      <c r="N27" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="O27" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" s="32" t="s">
+      <c r="Q27" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="R27" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="31"/>
+      <c r="S27" s="40"/>
     </row>
     <row r="28" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="33">
+      <c r="B28" s="35">
         <f>STDEVA(G32:R33)</f>
         <v>0.41668606015472887</v>
       </c>
@@ -1897,27 +2074,27 @@
         <f>D28*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="31"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="40"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
     </row>
     <row r="29" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="11" t="s">
         <v>10</v>
       </c>
@@ -1932,25 +2109,25 @@
         <f>D29*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="31"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="40"/>
     </row>
     <row r="30" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="1">
@@ -1964,40 +2141,40 @@
         <f>D30*$F$10</f>
         <v>99.11999999999999</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="30">
         <v>86.48</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="30">
         <v>90.46</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="30">
         <v>75.87</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="30">
         <v>71.38</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="30">
         <v>67.209999999999994</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="30">
         <v>68.55</v>
       </c>
-      <c r="M30" s="27">
+      <c r="M30" s="30">
         <v>82.22</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="30">
         <v>80.09</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O30" s="30">
         <v>72.25</v>
       </c>
-      <c r="P30" s="27">
+      <c r="P30" s="30">
         <v>99.68</v>
       </c>
-      <c r="Q30" s="27">
+      <c r="Q30" s="30">
         <v>63.3</v>
       </c>
-      <c r="R30" s="27">
+      <c r="R30" s="30">
         <v>84.9</v>
       </c>
       <c r="S30" s="26" t="s">
@@ -2005,7 +2182,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
+      <c r="B31" s="31">
         <f>B34-$B$24</f>
         <v>-11.100000000000023</v>
       </c>
@@ -2023,22 +2200,22 @@
         <f>D31*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="13" t="s">
@@ -2048,51 +2225,51 @@
         <f>SUM(F27:F31)</f>
         <v>99.11999999999999</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="32">
         <f>G30-G$20</f>
         <v>-1</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="32">
         <f t="shared" ref="H32:R32" si="0">H30-H$20</f>
         <v>-0.93000000000000682</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="32">
         <f t="shared" si="0"/>
         <v>-0.71999999999999886</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="32">
         <f t="shared" si="0"/>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="32">
         <f t="shared" si="0"/>
         <v>-0.97000000000001307</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="32">
         <f t="shared" si="0"/>
         <v>-0.84000000000000341</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="32">
         <f t="shared" si="0"/>
         <v>-1.3700000000000045</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N32" s="32">
         <f t="shared" si="0"/>
         <v>-0.92999999999999261</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O32" s="32">
         <f t="shared" si="0"/>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="P32" s="29">
+      <c r="P32" s="32">
         <f t="shared" si="0"/>
         <v>-1.6999999999999886</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="32">
         <f t="shared" si="0"/>
         <v>-0.85999999999999943</v>
       </c>
-      <c r="R32" s="29">
+      <c r="R32" s="32">
         <f t="shared" si="0"/>
         <v>-1.1899999999999977</v>
       </c>
@@ -2113,69 +2290,69 @@
         <f>$E$13-F32</f>
         <v>0.88000000000000966</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
       <c r="S33" s="26"/>
     </row>
     <row r="34" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23">
+      <c r="B34" s="27">
         <f>SUM(G30:R31)</f>
         <v>942.39</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="24" t="s">
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
       <c r="S34" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2195,21 +2372,21 @@
       <c r="F36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="31"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="40"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
@@ -2229,46 +2406,46 @@
         <f>D37*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="H37" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="K37" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="32" t="s">
+      <c r="L37" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="32" t="s">
+      <c r="M37" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N37" s="32" t="s">
+      <c r="N37" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O37" s="32" t="s">
+      <c r="O37" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="32" t="s">
+      <c r="P37" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="32" t="s">
+      <c r="Q37" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="32" t="s">
+      <c r="R37" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S37" s="31"/>
+      <c r="S37" s="40"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="33">
+      <c r="B38" s="35">
         <f>STDEVA(G42:R43)</f>
         <v>0.23529961557747509</v>
       </c>
@@ -2286,22 +2463,22 @@
         <f>D38*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="31"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="40"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="11" t="s">
         <v>10</v>
       </c>
@@ -2316,19 +2493,19 @@
         <f>D39*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="31"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="40"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
@@ -2348,40 +2525,40 @@
         <f>D40*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="30">
         <v>86.53</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="30">
         <v>90.33</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="30">
         <v>75.709999999999994</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J40" s="30">
         <v>71.069999999999993</v>
       </c>
-      <c r="K40" s="27">
+      <c r="K40" s="30">
         <v>67.55</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="30">
         <v>68.72</v>
       </c>
-      <c r="M40" s="27">
+      <c r="M40" s="30">
         <v>82.74</v>
       </c>
-      <c r="N40" s="27">
+      <c r="N40" s="30">
         <v>79.989999999999995</v>
       </c>
-      <c r="O40" s="27">
+      <c r="O40" s="30">
         <v>71.84</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P40" s="30">
         <v>100.42</v>
       </c>
-      <c r="Q40" s="27">
+      <c r="Q40" s="30">
         <v>63.32</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="30">
         <v>84.92</v>
       </c>
       <c r="S40" s="26" t="s">
@@ -2389,11 +2566,11 @@
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="28">
+      <c r="B41" s="31">
         <f>B44-$B$24</f>
         <v>-10.350000000000023</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="1">
@@ -2407,22 +2584,22 @@
         <f>D41*$F$12</f>
         <v>99.6</v>
       </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
       <c r="S41" s="26"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="28"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="13" t="s">
@@ -2432,51 +2609,51 @@
         <f>SUM(F37:F41)</f>
         <v>99.6</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="32">
         <f>G40-G$20</f>
         <v>-0.95000000000000284</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="32">
         <f t="shared" ref="H42:Q42" si="1">H40-H$20</f>
         <v>-1.0600000000000023</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="32">
         <f t="shared" si="1"/>
         <v>-0.88000000000000966</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="32">
         <f t="shared" si="1"/>
         <v>-0.30000000000001137</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="32">
         <f t="shared" si="1"/>
         <v>-0.63000000000000966</v>
       </c>
-      <c r="L42" s="29">
+      <c r="L42" s="32">
         <f t="shared" si="1"/>
         <v>-0.67000000000000171</v>
       </c>
-      <c r="M42" s="29">
+      <c r="M42" s="32">
         <f t="shared" si="1"/>
         <v>-0.85000000000000853</v>
       </c>
-      <c r="N42" s="29">
+      <c r="N42" s="32">
         <f t="shared" si="1"/>
         <v>-1.0300000000000011</v>
       </c>
-      <c r="O42" s="29">
+      <c r="O42" s="32">
         <f t="shared" si="1"/>
         <v>-1.0099999999999909</v>
       </c>
-      <c r="P42" s="29">
+      <c r="P42" s="32">
         <f t="shared" si="1"/>
         <v>-0.95999999999999375</v>
       </c>
-      <c r="Q42" s="29">
+      <c r="Q42" s="32">
         <f t="shared" si="1"/>
         <v>-0.83999999999999631</v>
       </c>
-      <c r="R42" s="29">
+      <c r="R42" s="32">
         <f>R40-R$20</f>
         <v>-1.1700000000000017</v>
       </c>
@@ -2497,69 +2674,69 @@
         <f>$E$13-F42</f>
         <v>0.40000000000000568</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23">
+      <c r="B44" s="27">
         <f>SUM(G40:R41)</f>
         <v>943.14</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25" t="s">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="24" t="s">
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
       <c r="S44" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2579,21 +2756,21 @@
       <c r="F46" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="30" t="s">
+      <c r="G46" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="31"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="40"/>
     </row>
     <row r="47" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
@@ -2613,46 +2790,46 @@
         <f>D47*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H47" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J47" s="32" t="s">
+      <c r="J47" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K47" s="32" t="s">
+      <c r="K47" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="32" t="s">
+      <c r="L47" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M47" s="32" t="s">
+      <c r="M47" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N47" s="32" t="s">
+      <c r="N47" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="32" t="s">
+      <c r="O47" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P47" s="32" t="s">
+      <c r="P47" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" s="32" t="s">
+      <c r="Q47" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R47" s="32" t="s">
+      <c r="R47" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S47" s="31"/>
+      <c r="S47" s="40"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="33">
+      <c r="B48" s="35">
         <f>STDEVA(G52:R53)</f>
         <v>0.41646783134529308</v>
       </c>
@@ -2670,23 +2847,23 @@
         <f>D48*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="31"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="40"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
-      <c r="C49" s="39" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="1">
@@ -2700,18 +2877,18 @@
         <f>D49*$F$8</f>
         <v>100</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
       <c r="S49" s="14"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
@@ -2732,40 +2909,40 @@
         <f>D50*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G50" s="30">
         <v>86.51</v>
       </c>
-      <c r="H50" s="27">
+      <c r="H50" s="30">
         <v>90.44</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="30">
         <v>75.790000000000006</v>
       </c>
-      <c r="J50" s="27">
+      <c r="J50" s="30">
         <v>71.349999999999994</v>
       </c>
-      <c r="K50" s="27">
+      <c r="K50" s="30">
         <v>67.23</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L50" s="30">
         <v>68.599999999999994</v>
       </c>
-      <c r="M50" s="27">
+      <c r="M50" s="30">
         <v>82.17</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N50" s="30">
         <v>80.13</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O50" s="30">
         <v>72.209999999999994</v>
       </c>
-      <c r="P50" s="27">
+      <c r="P50" s="30">
         <v>99.65</v>
       </c>
-      <c r="Q50" s="27">
+      <c r="Q50" s="30">
         <v>63.38</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R50" s="30">
         <v>84.93</v>
       </c>
       <c r="S50" s="26" t="s">
@@ -2773,7 +2950,7 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="28">
+      <c r="B51" s="31">
         <f>B54-$B$24</f>
         <v>-11.099999999999909</v>
       </c>
@@ -2791,22 +2968,22 @@
         <f>D51*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="28"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12" t="s">
@@ -2816,51 +2993,51 @@
         <f>SUM(F47:F51)</f>
         <v>100</v>
       </c>
-      <c r="G52" s="29">
+      <c r="G52" s="32">
         <f>G50-G$20</f>
         <v>-0.96999999999999886</v>
       </c>
-      <c r="H52" s="29">
+      <c r="H52" s="32">
         <f t="shared" ref="H52:R52" si="2">H50-H$20</f>
         <v>-0.95000000000000284</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I52" s="32">
         <f t="shared" si="2"/>
         <v>-0.79999999999999716</v>
       </c>
-      <c r="J52" s="29">
+      <c r="J52" s="32">
         <f t="shared" si="2"/>
         <v>-2.0000000000010232E-2</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="32">
         <f t="shared" si="2"/>
         <v>-0.95000000000000284</v>
       </c>
-      <c r="L52" s="29">
+      <c r="L52" s="32">
         <f t="shared" si="2"/>
         <v>-0.79000000000000625</v>
       </c>
-      <c r="M52" s="29">
+      <c r="M52" s="32">
         <f t="shared" si="2"/>
         <v>-1.4200000000000017</v>
       </c>
-      <c r="N52" s="29">
+      <c r="N52" s="32">
         <f t="shared" si="2"/>
         <v>-0.89000000000000057</v>
       </c>
-      <c r="O52" s="29">
+      <c r="O52" s="32">
         <f t="shared" si="2"/>
         <v>-0.64000000000000057</v>
       </c>
-      <c r="P52" s="29">
+      <c r="P52" s="32">
         <f t="shared" si="2"/>
         <v>-1.7299999999999898</v>
       </c>
-      <c r="Q52" s="29">
+      <c r="Q52" s="32">
         <f t="shared" si="2"/>
         <v>-0.77999999999999403</v>
       </c>
-      <c r="R52" s="29">
+      <c r="R52" s="32">
         <f t="shared" si="2"/>
         <v>-1.1599999999999966</v>
       </c>
@@ -2881,69 +3058,69 @@
         <f>$E$13-F52</f>
         <v>0</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="23">
+      <c r="B54" s="27">
         <f>SUM(G50:R51)</f>
         <v>942.3900000000001</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25" t="s">
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="24" t="s">
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
       <c r="S54" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
@@ -2963,21 +3140,21 @@
       <c r="F56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G56" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="31"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="40"/>
     </row>
     <row r="57" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="20" t="s">
@@ -2997,50 +3174,50 @@
         <f>D57*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G57" s="32" t="s">
+      <c r="G57" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="32" t="s">
+      <c r="H57" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="32" t="s">
+      <c r="I57" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J57" s="32" t="s">
+      <c r="J57" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="32" t="s">
+      <c r="K57" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L57" s="32" t="s">
+      <c r="L57" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M57" s="32" t="s">
+      <c r="M57" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N57" s="32" t="s">
+      <c r="N57" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O57" s="32" t="s">
+      <c r="O57" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P57" s="32" t="s">
+      <c r="P57" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q57" s="32" t="s">
+      <c r="Q57" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R57" s="32" t="s">
+      <c r="R57" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S57" s="31"/>
+      <c r="S57" s="40"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="33">
+      <c r="B58" s="35">
         <f>STDEVA(G62:R63)</f>
         <v>0.13545378279223655</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="1">
@@ -3054,22 +3231,22 @@
         <f>D58*$F$6</f>
         <v>100</v>
       </c>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="31"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="40"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="33"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="11" t="s">
         <v>10</v>
       </c>
@@ -3084,18 +3261,18 @@
         <f>D59*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
       <c r="S59" s="14"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
@@ -3116,40 +3293,40 @@
         <f>D60*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G60" s="27">
+      <c r="G60" s="30">
         <v>87.13</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H60" s="30">
         <v>90.85</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="30">
         <v>76.14</v>
       </c>
-      <c r="J60" s="27">
+      <c r="J60" s="30">
         <v>71.319999999999993</v>
       </c>
-      <c r="K60" s="27">
+      <c r="K60" s="30">
         <v>67.91</v>
       </c>
-      <c r="L60" s="27">
+      <c r="L60" s="30">
         <v>69.09</v>
       </c>
-      <c r="M60" s="27">
+      <c r="M60" s="30">
         <v>83.21</v>
       </c>
-      <c r="N60" s="27">
+      <c r="N60" s="30">
         <v>80.540000000000006</v>
       </c>
-      <c r="O60" s="27">
+      <c r="O60" s="30">
         <v>72.36</v>
       </c>
-      <c r="P60" s="27">
+      <c r="P60" s="30">
         <v>100.95</v>
       </c>
-      <c r="Q60" s="27">
+      <c r="Q60" s="30">
         <v>63.82</v>
       </c>
-      <c r="R60" s="27">
+      <c r="R60" s="30">
         <v>85.58</v>
       </c>
       <c r="S60" s="26" t="s">
@@ -3157,7 +3334,7 @@
       </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="28">
+      <c r="B61" s="31">
         <f>B64-$B$24</f>
         <v>-4.5899999999998045</v>
       </c>
@@ -3175,22 +3352,22 @@
         <f>D61*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="28"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12" t="s">
@@ -3200,51 +3377,51 @@
         <f>SUM(F57:F61)</f>
         <v>100</v>
       </c>
-      <c r="G62" s="29">
+      <c r="G62" s="32">
         <f>G60-G$20</f>
         <v>-0.35000000000000853</v>
       </c>
-      <c r="H62" s="29">
+      <c r="H62" s="32">
         <f t="shared" ref="H62:R62" si="3">H60-H$20</f>
         <v>-0.54000000000000625</v>
       </c>
-      <c r="I62" s="29">
+      <c r="I62" s="32">
         <f t="shared" si="3"/>
         <v>-0.45000000000000284</v>
       </c>
-      <c r="J62" s="29">
+      <c r="J62" s="32">
         <f t="shared" si="3"/>
         <v>-5.0000000000011369E-2</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="32">
         <f t="shared" si="3"/>
         <v>-0.27000000000001023</v>
       </c>
-      <c r="L62" s="29">
+      <c r="L62" s="32">
         <f t="shared" si="3"/>
         <v>-0.29999999999999716</v>
       </c>
-      <c r="M62" s="29">
+      <c r="M62" s="32">
         <f t="shared" si="3"/>
         <v>-0.38000000000000966</v>
       </c>
-      <c r="N62" s="29">
+      <c r="N62" s="32">
         <f t="shared" si="3"/>
         <v>-0.47999999999998977</v>
       </c>
-      <c r="O62" s="29">
+      <c r="O62" s="32">
         <f t="shared" si="3"/>
         <v>-0.48999999999999488</v>
       </c>
-      <c r="P62" s="29">
+      <c r="P62" s="32">
         <f t="shared" si="3"/>
         <v>-0.42999999999999261</v>
       </c>
-      <c r="Q62" s="29">
+      <c r="Q62" s="32">
         <f t="shared" si="3"/>
         <v>-0.33999999999999631</v>
       </c>
-      <c r="R62" s="29">
+      <c r="R62" s="32">
         <f t="shared" si="3"/>
         <v>-0.51000000000000512</v>
       </c>
@@ -3265,69 +3442,69 @@
         <f>$E$13-F62</f>
         <v>0</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="23">
+      <c r="B64" s="27">
         <f>SUM(G60:R61)</f>
         <v>948.9000000000002</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25" t="s">
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="24" t="s">
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
       <c r="S64" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
       <c r="S65" s="26"/>
     </row>
     <row r="66" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
@@ -3347,27 +3524,27 @@
       <c r="F66" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G66" s="30" t="s">
+      <c r="G66" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="31"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="40"/>
     </row>
     <row r="67" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="1">
@@ -3381,46 +3558,46 @@
         <f>D67*$F$5</f>
         <v>100</v>
       </c>
-      <c r="G67" s="32" t="s">
+      <c r="G67" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="32" t="s">
+      <c r="H67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="32" t="s">
+      <c r="I67" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J67" s="32" t="s">
+      <c r="J67" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K67" s="32" t="s">
+      <c r="K67" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L67" s="32" t="s">
+      <c r="L67" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M67" s="32" t="s">
+      <c r="M67" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N67" s="32" t="s">
+      <c r="N67" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O67" s="32" t="s">
+      <c r="O67" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P67" s="32" t="s">
+      <c r="P67" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q67" s="32" t="s">
+      <c r="Q67" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R67" s="32" t="s">
+      <c r="R67" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S67" s="31"/>
+      <c r="S67" s="40"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="33">
+      <c r="B68" s="35">
         <f>STDEVA(G72:R73)</f>
         <v>7.7869354457555204E-2</v>
       </c>
@@ -3438,22 +3615,22 @@
         <f>D68*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="31"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="40"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="33"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="11" t="s">
         <v>10</v>
       </c>
@@ -3468,18 +3645,18 @@
         <f>D69*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
       <c r="S69" s="14"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
@@ -3500,40 +3677,40 @@
         <f>D70*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G70" s="30">
         <v>87.23</v>
       </c>
-      <c r="H70" s="27">
+      <c r="H70" s="30">
         <v>91.12</v>
       </c>
-      <c r="I70" s="27">
+      <c r="I70" s="30">
         <v>76.34</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J70" s="30">
         <v>71.400000000000006</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K70" s="30">
         <v>67.98</v>
       </c>
-      <c r="L70" s="27">
+      <c r="L70" s="30">
         <v>69.19</v>
       </c>
-      <c r="M70" s="27">
+      <c r="M70" s="30">
         <v>83.43</v>
       </c>
-      <c r="N70" s="27">
+      <c r="N70" s="30">
         <v>80.819999999999993</v>
       </c>
-      <c r="O70" s="27">
+      <c r="O70" s="30">
         <v>72.63</v>
       </c>
-      <c r="P70" s="27">
+      <c r="P70" s="30">
         <v>101.19</v>
       </c>
-      <c r="Q70" s="27">
+      <c r="Q70" s="30">
         <v>64.02</v>
       </c>
-      <c r="R70" s="27">
+      <c r="R70" s="30">
         <v>85.92</v>
       </c>
       <c r="S70" s="26" t="s">
@@ -3541,7 +3718,7 @@
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B71" s="28">
+      <c r="B71" s="31">
         <f>B74-$B$24</f>
         <v>-2.220000000000141</v>
       </c>
@@ -3559,22 +3736,22 @@
         <f>D71*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
       <c r="S71" s="26"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B72" s="28"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12" t="s">
@@ -3584,51 +3761,51 @@
         <f>SUM(F67:F71)</f>
         <v>100</v>
       </c>
-      <c r="G72" s="29">
+      <c r="G72" s="32">
         <f>G70-G$20</f>
         <v>-0.25</v>
       </c>
-      <c r="H72" s="29">
+      <c r="H72" s="32">
         <f t="shared" ref="H72:R72" si="4">H70-H$20</f>
         <v>-0.26999999999999602</v>
       </c>
-      <c r="I72" s="29">
+      <c r="I72" s="32">
         <f t="shared" si="4"/>
         <v>-0.25</v>
       </c>
-      <c r="J72" s="29">
+      <c r="J72" s="32">
         <f t="shared" si="4"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="K72" s="29">
+      <c r="K72" s="32">
         <f t="shared" si="4"/>
         <v>-0.20000000000000284</v>
       </c>
-      <c r="L72" s="29">
+      <c r="L72" s="32">
         <f t="shared" si="4"/>
         <v>-0.20000000000000284</v>
       </c>
-      <c r="M72" s="29">
+      <c r="M72" s="32">
         <f t="shared" si="4"/>
         <v>-0.15999999999999659</v>
       </c>
-      <c r="N72" s="29">
+      <c r="N72" s="32">
         <f t="shared" si="4"/>
         <v>-0.20000000000000284</v>
       </c>
-      <c r="O72" s="29">
+      <c r="O72" s="32">
         <f t="shared" si="4"/>
         <v>-0.21999999999999886</v>
       </c>
-      <c r="P72" s="29">
+      <c r="P72" s="32">
         <f t="shared" si="4"/>
         <v>-0.18999999999999773</v>
       </c>
-      <c r="Q72" s="29">
+      <c r="Q72" s="32">
         <f t="shared" si="4"/>
         <v>-0.14000000000000057</v>
       </c>
-      <c r="R72" s="29">
+      <c r="R72" s="32">
         <f t="shared" si="4"/>
         <v>-0.17000000000000171</v>
       </c>
@@ -3649,69 +3826,69 @@
         <f>$E$13-F72</f>
         <v>0</v>
       </c>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
       <c r="S73" s="26"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B74" s="23">
+      <c r="B74" s="27">
         <f>SUM(G70:R71)</f>
         <v>951.26999999999987</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25" t="s">
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="24" t="s">
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
       <c r="S74" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
       <c r="S75" s="26"/>
     </row>
     <row r="79" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3726,6 +3903,268 @@
     <row r="87" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="286">
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:F75"/>
+    <mergeCell ref="G74:L75"/>
+    <mergeCell ref="M74:R75"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:F65"/>
+    <mergeCell ref="G64:L65"/>
+    <mergeCell ref="M64:R65"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="G66:R66"/>
+    <mergeCell ref="S66:S68"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="P67:P69"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="R67:R69"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="S60:S61"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="S46:S48"/>
+    <mergeCell ref="G56:R56"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="Q57:Q59"/>
+    <mergeCell ref="R57:R59"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="R37:R39"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="S16:S19"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G26:R26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="C24:F25"/>
+    <mergeCell ref="G24:L25"/>
+    <mergeCell ref="M24:R25"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="G16:R16"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G36:R36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="C34:F35"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="M34:R35"/>
+    <mergeCell ref="C44:F45"/>
+    <mergeCell ref="G44:L45"/>
+    <mergeCell ref="M44:R45"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="G46:R46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="R47:R49"/>
     <mergeCell ref="S52:S53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:F55"/>
@@ -3750,387 +4189,125 @@
     <mergeCell ref="R52:R53"/>
     <mergeCell ref="L50:L51"/>
     <mergeCell ref="M50:M51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="G46:R46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="C34:F35"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="M34:R35"/>
-    <mergeCell ref="C44:F45"/>
-    <mergeCell ref="G44:L45"/>
-    <mergeCell ref="M44:R45"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G36:R36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="O37:O39"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="C24:F25"/>
-    <mergeCell ref="G24:L25"/>
-    <mergeCell ref="M24:R25"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="G16:R16"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G26:R26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="S16:S19"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="S46:S48"/>
-    <mergeCell ref="G56:R56"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="Q57:Q59"/>
-    <mergeCell ref="R57:R59"/>
-    <mergeCell ref="Q37:Q39"/>
-    <mergeCell ref="R37:R39"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:R61"/>
-    <mergeCell ref="S60:S61"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="S64:S65"/>
-    <mergeCell ref="G66:R66"/>
-    <mergeCell ref="S66:S68"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="N67:N69"/>
-    <mergeCell ref="O67:O69"/>
-    <mergeCell ref="P67:P69"/>
-    <mergeCell ref="Q67:Q69"/>
-    <mergeCell ref="R67:R69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:F65"/>
-    <mergeCell ref="G64:L65"/>
-    <mergeCell ref="M64:R65"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:F75"/>
-    <mergeCell ref="G74:L75"/>
-    <mergeCell ref="M74:R75"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="G70:G71"/>
   </mergeCells>
   <conditionalFormatting sqref="G22:R23">
-    <cfRule type="cellIs" dxfId="81" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22">
-    <cfRule type="cellIs" dxfId="79" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B42">
-    <cfRule type="cellIs" dxfId="77" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:R43">
-    <cfRule type="cellIs" dxfId="75" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:R53">
-    <cfRule type="cellIs" dxfId="73" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:R33">
-    <cfRule type="cellIs" dxfId="71" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="cellIs" dxfId="69" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B52">
-    <cfRule type="cellIs" dxfId="67" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:R63">
-    <cfRule type="cellIs" dxfId="65" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="63" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:R73">
-    <cfRule type="cellIs" dxfId="61" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72">
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="57" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="87" priority="14" operator="notEqual">
       <formula>E57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E61">
-    <cfRule type="cellIs" dxfId="56" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="13" operator="notEqual">
       <formula>E47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E51">
-    <cfRule type="cellIs" dxfId="55" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="85" priority="12" operator="notEqual">
       <formula>E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E41">
-    <cfRule type="cellIs" dxfId="54" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="84" priority="11" operator="notEqual">
       <formula>E27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E31">
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="10" operator="notEqual">
       <formula>E17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4141,10 +4318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00ADB1D-A999-4C63-97B9-F8B611698B15}">
-  <dimension ref="B1:X87"/>
+  <dimension ref="B1:X88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="R22" sqref="G22:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4157,14 +4334,14 @@
   <sheetData>
     <row r="1" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
@@ -4215,7 +4392,7 @@
       <c r="G5" s="9">
         <v>2.1</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -4234,7 +4411,7 @@
       <c r="G6" s="9">
         <v>1.95</v>
       </c>
-      <c r="K6" s="38"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -4245,7 +4422,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="10"/>
-      <c r="K7" s="38"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -4264,7 +4441,7 @@
       <c r="G8" s="9">
         <v>2</v>
       </c>
-      <c r="K8" s="38"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
@@ -4275,7 +4452,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="10"/>
-      <c r="K9" s="38"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -4294,7 +4471,7 @@
       <c r="G10" s="9">
         <v>100</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -4305,7 +4482,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="10"/>
-      <c r="K11" s="38"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -4324,19 +4501,19 @@
       <c r="G12" s="9">
         <v>743</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="37">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="38">
         <v>100</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
@@ -4394,21 +4571,21 @@
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="40"/>
     </row>
     <row r="17" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
@@ -4428,46 +4605,46 @@
         <f>D17*$F$5</f>
         <v>0</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="31"/>
+      <c r="S17" s="40"/>
     </row>
     <row r="18" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33">
+      <c r="B18" s="35">
         <f>STDEVA(G22:R23)</f>
         <v>0</v>
       </c>
@@ -4485,22 +4662,22 @@
         <f>D18*$F$6</f>
         <v>0</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="31"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="40"/>
     </row>
     <row r="19" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>10</v>
       </c>
@@ -4515,19 +4692,19 @@
         <f>D19*$F$8</f>
         <v>0</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="31"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="40"/>
     </row>
     <row r="20" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
@@ -4547,40 +4724,40 @@
         <f>D20*$F$10</f>
         <v>0</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="30">
         <v>87.48</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="30">
         <v>91.39</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="30">
         <v>76.59</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="30">
         <v>71.37</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="30">
         <v>68.180000000000007</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="30">
         <v>69.39</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="30">
         <v>83.59</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="30">
         <v>81.02</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="30">
         <v>72.849999999999994</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="30">
         <v>101.38</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="30">
         <v>64.16</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="30">
         <v>86.09</v>
       </c>
       <c r="S20" s="26" t="s">
@@ -4588,7 +4765,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28">
+      <c r="B21" s="31">
         <v>0</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4605,22 +4782,22 @@
         <f>D21*$F$12</f>
         <v>0</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
       <c r="S21" s="26"/>
     </row>
     <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
@@ -4630,40 +4807,40 @@
         <f>SUM(F17:F21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="34">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
-        <v>0</v>
-      </c>
-      <c r="I22" s="34">
-        <v>0</v>
-      </c>
-      <c r="J22" s="34">
-        <v>0</v>
-      </c>
-      <c r="K22" s="34">
-        <v>0</v>
-      </c>
-      <c r="L22" s="34">
-        <v>0</v>
-      </c>
-      <c r="M22" s="34">
-        <v>0</v>
-      </c>
-      <c r="N22" s="34">
-        <v>0</v>
-      </c>
-      <c r="O22" s="34">
-        <v>0</v>
-      </c>
-      <c r="P22" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="34">
-        <v>0</v>
-      </c>
-      <c r="R22" s="34">
+      <c r="G22" s="39">
+        <v>0</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39">
+        <v>0</v>
+      </c>
+      <c r="K22" s="39">
+        <v>0</v>
+      </c>
+      <c r="L22" s="39">
+        <v>0</v>
+      </c>
+      <c r="M22" s="39">
+        <v>0</v>
+      </c>
+      <c r="N22" s="39">
+        <v>0</v>
+      </c>
+      <c r="O22" s="39">
+        <v>0</v>
+      </c>
+      <c r="P22" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>0</v>
+      </c>
+      <c r="R22" s="39">
         <v>0</v>
       </c>
       <c r="S22" s="26" t="s">
@@ -4683,1785 +4860,1705 @@
         <f>$E$13-F22</f>
         <v>100</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23">
+      <c r="B24" s="27">
         <f>SUM(G20:R21)</f>
         <v>953.49</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="24" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
       <c r="S24" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
       <c r="S25" s="26"/>
     </row>
-    <row r="26" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="18">
+    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43"/>
+    </row>
+    <row r="27" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
         <f>B16+1</f>
         <v>1</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="31"/>
-    </row>
-    <row r="27" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="40"/>
+    </row>
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <f>D27*$D$5+$G$5</f>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <f>D28*$D$5+$G$5</f>
         <v>2.1</v>
       </c>
-      <c r="F27" s="8">
-        <f>D27*$F$5</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="32" t="s">
+      <c r="F28" s="8">
+        <f>D28*$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I28" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J28" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K28" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L28" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="32" t="s">
+      <c r="N28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="O28" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P28" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" s="32" t="s">
+      <c r="Q28" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="R28" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="31"/>
-    </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="33">
-        <f>STDEVA(G32:R33)</f>
+      <c r="S28" s="40"/>
+    </row>
+    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="35">
+        <f>STDEVA(G33:R34)</f>
         <v>0.41668606015472887</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
-        <f>D28*$D$6+$G$6</f>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <f>D29*$D$6+$G$6</f>
         <v>1.95</v>
       </c>
-      <c r="F28" s="8">
-        <f>D28*$F$6</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="31"/>
-    </row>
-    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
-      <c r="C29" s="11" t="s">
+      <c r="F29" s="8">
+        <f>D29*$F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="40"/>
+    </row>
+    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="35"/>
+      <c r="C30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
-        <f>D29*$D$8+$G$8</f>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <f>D30*$D$8+$G$8</f>
         <v>2</v>
       </c>
-      <c r="F29" s="8">
-        <f>D29*$F$8</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="14"/>
-    </row>
-    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
+      <c r="F30" s="8">
+        <f>D30*$F$8</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>84</v>
       </c>
-      <c r="E30" s="9">
-        <f>D30*$D$10+$G$10</f>
+      <c r="E31" s="9">
+        <f>D31*$D$10+$G$10</f>
         <v>108.4</v>
       </c>
-      <c r="F30" s="8">
-        <f>D30*$F$10</f>
+      <c r="F31" s="8">
+        <f>D31*$F$10</f>
         <v>99.11999999999999</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G31" s="30">
         <v>86.48</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H31" s="30">
         <v>90.46</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I31" s="30">
         <v>75.87</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J31" s="30">
         <v>71.38</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K31" s="30">
         <v>67.209999999999994</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L31" s="30">
         <v>68.55</v>
       </c>
-      <c r="M30" s="27">
+      <c r="M31" s="30">
         <v>82.22</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N31" s="30">
         <v>80.09</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O31" s="30">
         <v>72.25</v>
       </c>
-      <c r="P30" s="27">
+      <c r="P31" s="30">
         <v>99.68</v>
       </c>
-      <c r="Q30" s="27">
+      <c r="Q31" s="30">
         <v>63.3</v>
       </c>
-      <c r="R30" s="27">
+      <c r="R31" s="30">
         <v>84.9</v>
       </c>
-      <c r="S30" s="26" t="s">
+      <c r="S31" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
-        <f>B34-B24</f>
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="31">
+        <f>B35-B24</f>
         <v>-11.100000000000023</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
-        <f>$G$12-D31*$D$12</f>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <f>$G$12-D32*$D$12</f>
         <v>743</v>
       </c>
-      <c r="F31" s="8">
-        <f>D31*$F$12</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="26"/>
-    </row>
-    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="17">
-        <f>SUM(F27:F31)</f>
-        <v>99.11999999999999</v>
-      </c>
-      <c r="G32" s="29">
-        <f>G30-G$20</f>
-        <v>-1</v>
-      </c>
-      <c r="H32" s="29">
-        <f t="shared" ref="H32:R32" si="0">H30-H$20</f>
-        <v>-0.93000000000000682</v>
-      </c>
-      <c r="I32" s="29">
-        <f t="shared" si="0"/>
-        <v>-0.71999999999999886</v>
-      </c>
-      <c r="J32" s="29">
-        <f t="shared" si="0"/>
-        <v>9.9999999999909051E-3</v>
-      </c>
-      <c r="K32" s="29">
-        <f t="shared" si="0"/>
-        <v>-0.97000000000001307</v>
-      </c>
-      <c r="L32" s="29">
-        <f t="shared" si="0"/>
-        <v>-0.84000000000000341</v>
-      </c>
-      <c r="M32" s="29">
-        <f t="shared" si="0"/>
-        <v>-1.3700000000000045</v>
-      </c>
-      <c r="N32" s="29">
-        <f t="shared" si="0"/>
-        <v>-0.92999999999999261</v>
-      </c>
-      <c r="O32" s="29">
-        <f t="shared" si="0"/>
-        <v>-0.59999999999999432</v>
-      </c>
-      <c r="P32" s="29">
-        <f t="shared" si="0"/>
-        <v>-1.6999999999999886</v>
-      </c>
-      <c r="Q32" s="29">
-        <f t="shared" si="0"/>
-        <v>-0.85999999999999943</v>
-      </c>
-      <c r="R32" s="29">
-        <f t="shared" si="0"/>
-        <v>-1.1899999999999977</v>
-      </c>
-      <c r="S32" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="F32" s="8">
+        <f>D32*$F$12</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="26"/>
+    </row>
+    <row r="33" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="31"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="17">
+        <f>SUM(F28:F32)</f>
+        <v>99.11999999999999</v>
+      </c>
+      <c r="G33" s="32">
+        <f>G31-G$20</f>
+        <v>-1</v>
+      </c>
+      <c r="H33" s="32">
+        <f t="shared" ref="H33:R33" si="0">H31-H$20</f>
+        <v>-0.93000000000000682</v>
+      </c>
+      <c r="I33" s="32">
+        <f t="shared" si="0"/>
+        <v>-0.71999999999999886</v>
+      </c>
+      <c r="J33" s="32">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="K33" s="32">
+        <f t="shared" si="0"/>
+        <v>-0.97000000000001307</v>
+      </c>
+      <c r="L33" s="32">
+        <f t="shared" si="0"/>
+        <v>-0.84000000000000341</v>
+      </c>
+      <c r="M33" s="32">
+        <f t="shared" si="0"/>
+        <v>-1.3700000000000045</v>
+      </c>
+      <c r="N33" s="32">
+        <f t="shared" si="0"/>
+        <v>-0.92999999999999261</v>
+      </c>
+      <c r="O33" s="32">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999432</v>
+      </c>
+      <c r="P33" s="32">
+        <f t="shared" si="0"/>
+        <v>-1.6999999999999886</v>
+      </c>
+      <c r="Q33" s="32">
+        <f t="shared" si="0"/>
+        <v>-0.85999999999999943</v>
+      </c>
+      <c r="R33" s="32">
+        <f t="shared" si="0"/>
+        <v>-1.1899999999999977</v>
+      </c>
+      <c r="S33" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="17">
-        <f>$E$13-F32</f>
+      <c r="F34" s="17">
+        <f>$E$13-F33</f>
         <v>0.88000000000000966</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="26"/>
-    </row>
-    <row r="34" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23">
-        <f>SUM(G30:R31)</f>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="26"/>
+    </row>
+    <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="27">
+        <f>SUM(G31:R32)</f>
         <v>942.39</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C35" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="24" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="26" t="s">
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="26"/>
-    </row>
-    <row r="36" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18">
-        <f>B26+1</f>
+    <row r="36" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="26"/>
+    </row>
+    <row r="37" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
+        <f>B27+1</f>
         <v>2</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D37" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G37" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="31"/>
-    </row>
-    <row r="37" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="40"/>
+    </row>
+    <row r="38" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
-        <f>D37*$D$5+$G$5</f>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <f>D38*$D$5+$G$5</f>
         <v>2.1</v>
       </c>
-      <c r="F37" s="8">
-        <f>D37*$F$5</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="32" t="s">
+      <c r="F38" s="8">
+        <f>D38*$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="H38" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I38" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J38" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="K38" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="32" t="s">
+      <c r="L38" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="32" t="s">
+      <c r="M38" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N37" s="32" t="s">
+      <c r="N38" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O37" s="32" t="s">
+      <c r="O38" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="32" t="s">
+      <c r="P38" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="32" t="s">
+      <c r="Q38" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="32" t="s">
+      <c r="R38" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S37" s="31"/>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="33">
-        <f>STDEVA(G42:R43)</f>
+      <c r="S38" s="40"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="35">
+        <f>STDEVA(G43:R44)</f>
         <v>2.5936986577613744E-2</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9">
-        <f>D38*$D$6+$G$6</f>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <f>D39*$D$6+$G$6</f>
         <v>1.95</v>
       </c>
-      <c r="F38" s="8">
-        <f>D38*$F$6</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="31"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="11" t="s">
+      <c r="F39" s="8">
+        <f>D39*$F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="40"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="35"/>
+      <c r="C40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>10</v>
       </c>
-      <c r="E39" s="9">
-        <f>D39*$D$8+$G$8</f>
+      <c r="E40" s="9">
+        <f>D40*$D$8+$G$8</f>
         <v>2.1</v>
       </c>
-      <c r="F39" s="8">
-        <f>D39*$F$8</f>
+      <c r="F40" s="8">
+        <f>D40*$F$8</f>
         <v>50</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="14"/>
-    </row>
-    <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="14"/>
+    </row>
+    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>42</v>
       </c>
-      <c r="E40" s="9">
-        <f>D40*$D$10+$G$10</f>
+      <c r="E41" s="9">
+        <f>D41*$D$10+$G$10</f>
         <v>104.2</v>
       </c>
-      <c r="F40" s="8">
-        <f>D40*$F$10</f>
+      <c r="F41" s="8">
+        <f>D41*$F$10</f>
         <v>49.559999999999995</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G41" s="30">
         <v>86.47</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H41" s="30">
         <v>90.42</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I41" s="30">
         <v>75.8</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J41" s="30">
         <v>71.349999999999994</v>
       </c>
-      <c r="K40" s="27">
+      <c r="K41" s="30">
         <v>67.19</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L41" s="30">
         <v>68.55</v>
       </c>
-      <c r="M40" s="27">
+      <c r="M41" s="30">
         <v>82.16</v>
       </c>
-      <c r="N40" s="27">
+      <c r="N41" s="30">
         <v>80.08</v>
       </c>
-      <c r="O40" s="27">
+      <c r="O41" s="30">
         <v>72.2</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P41" s="30">
         <v>99.62</v>
       </c>
-      <c r="Q40" s="27">
+      <c r="Q41" s="30">
         <v>63.31</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R41" s="30">
         <v>84.88</v>
       </c>
-      <c r="S40" s="26" t="s">
+      <c r="S41" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="28">
-        <f>B44-B34</f>
+    <row r="42" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="31">
+        <f>B45-B35</f>
         <v>-0.35999999999989996</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9">
-        <f>$G$12-D41*$D$12</f>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <f>$G$12-D42*$D$12</f>
         <v>743</v>
       </c>
-      <c r="F41" s="8">
-        <f>D41*$F$12</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="26"/>
-    </row>
-    <row r="42" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="28"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="17">
-        <f>SUM(F37:F41)</f>
-        <v>99.56</v>
-      </c>
-      <c r="G42" s="29">
-        <f t="shared" ref="G42:Q42" si="1">G40-G30</f>
-        <v>-1.0000000000005116E-2</v>
-      </c>
-      <c r="H42" s="29">
-        <f t="shared" si="1"/>
-        <v>-3.9999999999992042E-2</v>
-      </c>
-      <c r="I42" s="29">
-        <f t="shared" si="1"/>
-        <v>-7.000000000000739E-2</v>
-      </c>
-      <c r="J42" s="29">
-        <f t="shared" si="1"/>
-        <v>-3.0000000000001137E-2</v>
-      </c>
-      <c r="K42" s="29">
-        <f t="shared" si="1"/>
-        <v>-1.9999999999996021E-2</v>
-      </c>
-      <c r="L42" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="29">
-        <f t="shared" si="1"/>
-        <v>-6.0000000000002274E-2</v>
-      </c>
-      <c r="N42" s="29">
-        <f t="shared" si="1"/>
-        <v>-1.0000000000005116E-2</v>
-      </c>
-      <c r="O42" s="29">
-        <f t="shared" si="1"/>
-        <v>-4.9999999999997158E-2</v>
-      </c>
-      <c r="P42" s="29">
-        <f t="shared" si="1"/>
-        <v>-6.0000000000002274E-2</v>
-      </c>
-      <c r="Q42" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0000000000005116E-2</v>
-      </c>
-      <c r="R42" s="29">
-        <f>R40-R30</f>
-        <v>-2.0000000000010232E-2</v>
-      </c>
-      <c r="S42" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="F42" s="8">
+        <f>D42*$F$12</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="26"/>
+    </row>
+    <row r="43" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="31"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="17">
+        <f>SUM(F38:F42)</f>
+        <v>99.56</v>
+      </c>
+      <c r="G43" s="32">
+        <f>G41-G$31</f>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="H43" s="32">
+        <f t="shared" ref="H43:R43" si="1">H41-H$31</f>
+        <v>-3.9999999999992042E-2</v>
+      </c>
+      <c r="I43" s="32">
+        <f t="shared" si="1"/>
+        <v>-7.000000000000739E-2</v>
+      </c>
+      <c r="J43" s="32">
+        <f t="shared" si="1"/>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="K43" s="32">
+        <f t="shared" si="1"/>
+        <v>-1.9999999999996021E-2</v>
+      </c>
+      <c r="L43" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="32">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000002274E-2</v>
+      </c>
+      <c r="N43" s="32">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="O43" s="32">
+        <f t="shared" si="1"/>
+        <v>-4.9999999999997158E-2</v>
+      </c>
+      <c r="P43" s="32">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000002274E-2</v>
+      </c>
+      <c r="Q43" s="32">
+        <f t="shared" si="1"/>
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="R43" s="32">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000010232E-2</v>
+      </c>
+      <c r="S43" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="17">
-        <f>$E$13-F42</f>
+      <c r="F44" s="17">
+        <f>$E$13-F43</f>
         <v>0.43999999999999773</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="26"/>
-    </row>
-    <row r="44" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23">
-        <f>SUM(G40:R41)</f>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="26"/>
+    </row>
+    <row r="45" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="27">
+        <f>SUM(G41:R42)</f>
         <v>942.03000000000009</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C45" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="24" t="s">
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="26" t="s">
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="26"/>
-    </row>
-    <row r="46" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="18">
-        <f>B36+1</f>
+    <row r="46" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="26"/>
+    </row>
+    <row r="47" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="18">
+        <f>B37+1</f>
         <v>3</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E47" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F47" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="30" t="s">
+      <c r="G47" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="31"/>
-    </row>
-    <row r="47" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="40"/>
+    </row>
+    <row r="48" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="9">
-        <f>D47*$D$5+$G$5</f>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9">
+        <f>D48*$D$5+$G$5</f>
         <v>2.1</v>
       </c>
-      <c r="F47" s="8">
-        <f>D47*$F$5</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="32" t="s">
+      <c r="F48" s="8">
+        <f>D48*$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H48" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I48" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J47" s="32" t="s">
+      <c r="J48" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K47" s="32" t="s">
+      <c r="K48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="32" t="s">
+      <c r="L48" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M47" s="32" t="s">
+      <c r="M48" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N47" s="32" t="s">
+      <c r="N48" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="32" t="s">
+      <c r="O48" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P47" s="32" t="s">
+      <c r="P48" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" s="32" t="s">
+      <c r="Q48" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R47" s="32" t="s">
+      <c r="R48" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S47" s="31"/>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="33">
-        <f>STDEVA(G52:R53)</f>
-        <v>0.10323186611612439</v>
-      </c>
-      <c r="C48" s="11" t="s">
+      <c r="S48" s="40"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="35">
+        <f>STDEVA(G53:R54)</f>
+        <v>0.10261357344203899</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="9">
-        <f>D48*$D$6+$G$6</f>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="9">
+        <f>D49*$D$6+$G$6</f>
         <v>1.95</v>
       </c>
-      <c r="F48" s="8">
-        <f>D48*$F$6</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="31"/>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
-      <c r="C49" s="11" t="s">
+      <c r="F49" s="8">
+        <f>D49*$F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="40"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="35"/>
+      <c r="C50" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D50" s="1">
         <v>7</v>
       </c>
-      <c r="E49" s="9">
-        <f>D49*$D$8+$G$8</f>
+      <c r="E50" s="9">
+        <f>D50*$D$8+$G$8</f>
         <v>2.0699999999999998</v>
       </c>
-      <c r="F49" s="8">
-        <f>D49*$F$8</f>
+      <c r="F50" s="8">
+        <f>D50*$F$8</f>
         <v>35</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="14"/>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="14"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <v>28</v>
       </c>
-      <c r="E50" s="9">
-        <f>D50*$D$10+$G$10</f>
+      <c r="E51" s="9">
+        <f>D51*$D$10+$G$10</f>
         <v>102.8</v>
       </c>
-      <c r="F50" s="8">
-        <f>D50*$F$10</f>
+      <c r="F51" s="8">
+        <f>D51*$F$10</f>
         <v>33.04</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G51" s="30">
         <v>86.46</v>
       </c>
-      <c r="H50" s="27">
+      <c r="H51" s="30">
         <v>90.38</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I51" s="30">
         <v>75.73</v>
       </c>
-      <c r="J50" s="27">
+      <c r="J51" s="30">
         <v>71.260000000000005</v>
       </c>
-      <c r="K50" s="27">
+      <c r="K51" s="30">
         <v>67.3</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L51" s="30">
         <v>68.599999999999994</v>
       </c>
-      <c r="M50" s="27">
+      <c r="M51" s="30">
         <v>82.32</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N51" s="30">
         <v>80.05</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O51" s="30">
         <v>72.09</v>
       </c>
-      <c r="P50" s="27">
+      <c r="P51" s="30">
         <v>99.85</v>
       </c>
-      <c r="Q50" s="27">
+      <c r="Q51" s="30">
         <v>63.31</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R51" s="30">
         <v>84.89</v>
       </c>
-      <c r="S50" s="26" t="s">
+      <c r="S51" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="28">
-        <f>B54-B44</f>
+    <row r="52" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="31">
+        <f>B55-B45</f>
         <v>0.20999999999980901</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D52" s="1">
         <v>26</v>
       </c>
-      <c r="E51" s="9">
-        <f>$G$12-D51*$D$12</f>
+      <c r="E52" s="9">
+        <f>$G$12-D52*$D$12</f>
         <v>730</v>
       </c>
-      <c r="F51" s="8">
-        <f>D51*$F$12</f>
+      <c r="F52" s="8">
+        <f>D52*$F$12</f>
         <v>31.2</v>
       </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="26"/>
-    </row>
-    <row r="52" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="28"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="17">
-        <f>SUM(F47:F51)</f>
-        <v>99.24</v>
-      </c>
-      <c r="G52" s="29">
-        <f t="shared" ref="G52:Q52" si="2">G50-G40</f>
-        <v>-1.0000000000005116E-2</v>
-      </c>
-      <c r="H52" s="29">
-        <f t="shared" si="2"/>
-        <v>-4.0000000000006253E-2</v>
-      </c>
-      <c r="I52" s="29">
-        <f t="shared" si="2"/>
-        <v>-6.9999999999993179E-2</v>
-      </c>
-      <c r="J52" s="29">
-        <f t="shared" si="2"/>
-        <v>-8.99999999999892E-2</v>
-      </c>
-      <c r="K52" s="29">
-        <f t="shared" si="2"/>
-        <v>0.10999999999999943</v>
-      </c>
-      <c r="L52" s="29">
-        <f t="shared" si="2"/>
-        <v>4.9999999999997158E-2</v>
-      </c>
-      <c r="M52" s="29">
-        <f t="shared" si="2"/>
-        <v>0.15999999999999659</v>
-      </c>
-      <c r="N52" s="29">
-        <f t="shared" si="2"/>
-        <v>-3.0000000000001137E-2</v>
-      </c>
-      <c r="O52" s="29">
-        <f t="shared" si="2"/>
-        <v>-0.10999999999999943</v>
-      </c>
-      <c r="P52" s="29">
-        <f t="shared" si="2"/>
-        <v>0.22999999999998977</v>
-      </c>
-      <c r="Q52" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="29">
-        <f>R50-R40</f>
-        <v>1.0000000000005116E-2</v>
-      </c>
-      <c r="S52" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="26"/>
+    </row>
+    <row r="53" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="31"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="17">
+        <f>SUM(F48:F52)</f>
+        <v>99.24</v>
+      </c>
+      <c r="G53" s="32">
+        <f>G51-G$31</f>
+        <v>-2.0000000000010232E-2</v>
+      </c>
+      <c r="H53" s="32">
+        <f t="shared" ref="H53:R53" si="2">H51-H$31</f>
+        <v>-7.9999999999998295E-2</v>
+      </c>
+      <c r="I53" s="32">
+        <f t="shared" si="2"/>
+        <v>-0.14000000000000057</v>
+      </c>
+      <c r="J53" s="32">
+        <f t="shared" si="2"/>
+        <v>-0.11999999999999034</v>
+      </c>
+      <c r="K53" s="32">
+        <f t="shared" si="2"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="L53" s="32">
+        <f t="shared" si="2"/>
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="M53" s="32">
+        <f t="shared" si="2"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="N53" s="32">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000006253E-2</v>
+      </c>
+      <c r="O53" s="32">
+        <f t="shared" si="2"/>
+        <v>-0.15999999999999659</v>
+      </c>
+      <c r="P53" s="32">
+        <f t="shared" si="2"/>
+        <v>0.16999999999998749</v>
+      </c>
+      <c r="Q53" s="32">
+        <f t="shared" si="2"/>
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="R53" s="32">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="S53" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="17">
-        <f>$E$13-F52</f>
+      <c r="F54" s="17">
+        <f>$E$13-F53</f>
         <v>0.76000000000000512</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="26"/>
-    </row>
-    <row r="54" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="23">
-        <f>SUM(G50:R51)</f>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="26"/>
+    </row>
+    <row r="55" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="27">
+        <f>SUM(G51:R52)</f>
         <v>942.2399999999999</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C55" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="24" t="s">
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="26" t="s">
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="26"/>
-    </row>
-    <row r="56" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="18">
-        <f>B46+1</f>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="26"/>
+    </row>
+    <row r="57" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="18">
+        <f>B47+1</f>
         <v>4</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C57" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D57" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E57" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F57" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G57" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="31"/>
-    </row>
-    <row r="57" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="20" t="s">
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="40"/>
+    </row>
+    <row r="58" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="9">
-        <f>D57*$D$5+$G$5</f>
-        <v>2.105</v>
-      </c>
-      <c r="F57" s="8">
-        <f>D57*$F$5</f>
-        <v>10</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J57" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="L57" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="M57" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="N57" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="O57" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="P57" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q57" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="R57" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S57" s="31"/>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="33">
-        <f>STDEVA(G62:R63)</f>
-        <v>9.2650369179466202E-2</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" s="9">
-        <f>D58*$D$6+$G$6</f>
+        <f>D58*$D$5+$G$5</f>
+        <v>2.105</v>
+      </c>
+      <c r="F58" s="8">
+        <f>D58*$F$5</f>
+        <v>10</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P58" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q58" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R58" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="40"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="35">
+        <f>STDEVA(G63:R64)</f>
+        <v>0.18679108407766312</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9">
+        <f>D59*$D$6+$G$6</f>
         <v>1.9549999999999998</v>
       </c>
-      <c r="F58" s="8">
-        <f>D58*$F$6</f>
+      <c r="F59" s="8">
+        <f>D59*$F$6</f>
         <v>20</v>
       </c>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="31"/>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="33"/>
-      <c r="C59" s="11" t="s">
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="40"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="35"/>
+      <c r="C60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D60" s="1">
         <v>4</v>
       </c>
-      <c r="E59" s="9">
-        <f>D59*$D$8+$G$8</f>
+      <c r="E60" s="9">
+        <f>D60*$D$8+$G$8</f>
         <v>2.04</v>
       </c>
-      <c r="F59" s="8">
-        <f>D59*$F$8</f>
+      <c r="F60" s="8">
+        <f>D60*$F$8</f>
         <v>20</v>
       </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="14"/>
-    </row>
-    <row r="60" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="19" t="s">
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="14"/>
+    </row>
+    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D61" s="1">
         <v>20</v>
       </c>
-      <c r="E60" s="9">
-        <f>D60*$D$10+$G$10</f>
+      <c r="E61" s="9">
+        <f>D61*$D$10+$G$10</f>
         <v>102</v>
       </c>
-      <c r="F60" s="8">
-        <f>D60*$F$10</f>
+      <c r="F61" s="8">
+        <f>D61*$F$10</f>
         <v>23.599999999999998</v>
       </c>
-      <c r="G60" s="27">
+      <c r="G61" s="30">
         <v>86.66</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H61" s="30">
         <v>90.55</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I61" s="30">
         <v>75.87</v>
       </c>
-      <c r="J60" s="27">
+      <c r="J61" s="30">
         <v>71.290000000000006</v>
       </c>
-      <c r="K60" s="27">
+      <c r="K61" s="30">
         <v>67.5</v>
       </c>
-      <c r="L60" s="27">
+      <c r="L61" s="30">
         <v>68.760000000000005</v>
       </c>
-      <c r="M60" s="27">
+      <c r="M61" s="30">
         <v>82.64</v>
       </c>
-      <c r="N60" s="27">
+      <c r="N61" s="30">
         <v>80.23</v>
       </c>
-      <c r="O60" s="27">
+      <c r="O61" s="30">
         <v>72.19</v>
       </c>
-      <c r="P60" s="27">
+      <c r="P61" s="30">
         <v>100.23</v>
       </c>
-      <c r="Q60" s="27">
+      <c r="Q61" s="30">
         <v>63.49</v>
       </c>
-      <c r="R60" s="27">
+      <c r="R61" s="30">
         <v>85.14</v>
       </c>
-      <c r="S60" s="26" t="s">
+      <c r="S61" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="28">
-        <f>B64-B54</f>
+    <row r="62" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="31">
+        <f>B65-B55</f>
         <v>2.3100000000001728</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D62" s="1">
         <v>22</v>
       </c>
-      <c r="E61" s="9">
-        <f>$G$12-D61*$D$12</f>
+      <c r="E62" s="9">
+        <f>$G$12-D62*$D$12</f>
         <v>732</v>
       </c>
-      <c r="F61" s="8">
-        <f>D61*$F$12</f>
+      <c r="F62" s="8">
+        <f>D62*$F$12</f>
         <v>26.4</v>
       </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="26"/>
-    </row>
-    <row r="62" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="28"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="17">
-        <f>SUM(F57:F61)</f>
-        <v>100</v>
-      </c>
-      <c r="G62" s="29">
-        <f t="shared" ref="G62:Q62" si="3">G60-G50</f>
-        <v>0.20000000000000284</v>
-      </c>
-      <c r="H62" s="29">
-        <f t="shared" si="3"/>
-        <v>0.17000000000000171</v>
-      </c>
-      <c r="I62" s="29">
-        <f t="shared" si="3"/>
-        <v>0.14000000000000057</v>
-      </c>
-      <c r="J62" s="29">
-        <f t="shared" si="3"/>
-        <v>3.0000000000001137E-2</v>
-      </c>
-      <c r="K62" s="29">
-        <f t="shared" si="3"/>
-        <v>0.20000000000000284</v>
-      </c>
-      <c r="L62" s="29">
-        <f t="shared" si="3"/>
-        <v>0.1600000000000108</v>
-      </c>
-      <c r="M62" s="29">
-        <f t="shared" si="3"/>
-        <v>0.32000000000000739</v>
-      </c>
-      <c r="N62" s="29">
-        <f t="shared" si="3"/>
-        <v>0.18000000000000682</v>
-      </c>
-      <c r="O62" s="29">
-        <f t="shared" si="3"/>
-        <v>9.9999999999994316E-2</v>
-      </c>
-      <c r="P62" s="29">
-        <f t="shared" si="3"/>
-        <v>0.38000000000000966</v>
-      </c>
-      <c r="Q62" s="29">
-        <f t="shared" si="3"/>
-        <v>0.17999999999999972</v>
-      </c>
-      <c r="R62" s="29">
-        <f>R60-R50</f>
-        <v>0.25</v>
-      </c>
-      <c r="S62" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="26"/>
+    </row>
+    <row r="63" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="31"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="17">
+        <f>SUM(F58:F62)</f>
+        <v>100</v>
+      </c>
+      <c r="G63" s="32">
+        <f>G61-G$31</f>
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="H63" s="32">
+        <f t="shared" ref="H63:R63" si="3">H61-H$31</f>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="I63" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="32">
+        <f t="shared" si="3"/>
+        <v>-8.99999999999892E-2</v>
+      </c>
+      <c r="K63" s="32">
+        <f t="shared" si="3"/>
+        <v>0.29000000000000625</v>
+      </c>
+      <c r="L63" s="32">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="M63" s="32">
+        <f t="shared" si="3"/>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N63" s="32">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="O63" s="32">
+        <f t="shared" si="3"/>
+        <v>-6.0000000000002274E-2</v>
+      </c>
+      <c r="P63" s="32">
+        <f t="shared" si="3"/>
+        <v>0.54999999999999716</v>
+      </c>
+      <c r="Q63" s="32">
+        <f t="shared" si="3"/>
+        <v>0.19000000000000483</v>
+      </c>
+      <c r="R63" s="32">
+        <f t="shared" si="3"/>
+        <v>0.23999999999999488</v>
+      </c>
+      <c r="S63" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="17">
-        <f>$E$13-F62</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="26"/>
-    </row>
-    <row r="64" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="23">
-        <f>SUM(G60:R61)</f>
+      <c r="F64" s="17">
+        <f>$E$13-F63</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="26"/>
+    </row>
+    <row r="65" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="27">
+        <f>SUM(G61:R62)</f>
         <v>944.55000000000007</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C65" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25" t="s">
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="24" t="s">
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="26" t="s">
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="26"/>
-    </row>
-    <row r="70" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="26"/>
+    </row>
     <row r="71" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X84" t="s">
+    <row r="84" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X85" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="239">
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:F65"/>
-    <mergeCell ref="G64:L65"/>
-    <mergeCell ref="M64:R65"/>
-    <mergeCell ref="S64:S65"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:R61"/>
-    <mergeCell ref="S60:S61"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="G56:R56"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="Q57:Q59"/>
-    <mergeCell ref="R57:R59"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:F55"/>
-    <mergeCell ref="G54:L55"/>
-    <mergeCell ref="M54:R55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="S50:S51"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="G46:R46"/>
-    <mergeCell ref="S46:S48"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:F45"/>
-    <mergeCell ref="G44:L45"/>
-    <mergeCell ref="M44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="G36:R36"/>
-    <mergeCell ref="S36:S38"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="O37:O39"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="Q37:Q39"/>
-    <mergeCell ref="R37:R39"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="G16:R16"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:F36"/>
+    <mergeCell ref="G35:L36"/>
+    <mergeCell ref="M35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="R28:R30"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:F25"/>
+    <mergeCell ref="G24:L25"/>
+    <mergeCell ref="M24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
     <mergeCell ref="Q20:Q21"/>
     <mergeCell ref="R20:R21"/>
     <mergeCell ref="S20:S21"/>
@@ -6479,6 +6576,1364 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="R22:R23"/>
     <mergeCell ref="S22:S23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="G16:R16"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G37:R37"/>
+    <mergeCell ref="S37:S39"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="P38:P40"/>
+    <mergeCell ref="Q38:Q40"/>
+    <mergeCell ref="R38:R40"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="G45:L46"/>
+    <mergeCell ref="M45:R46"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="G47:R47"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="N48:N50"/>
+    <mergeCell ref="O48:O50"/>
+    <mergeCell ref="P48:P50"/>
+    <mergeCell ref="Q48:Q50"/>
+    <mergeCell ref="R48:R50"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:F56"/>
+    <mergeCell ref="G55:L56"/>
+    <mergeCell ref="M55:R56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="G57:R57"/>
+    <mergeCell ref="S57:S59"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="L58:L60"/>
+    <mergeCell ref="M58:M60"/>
+    <mergeCell ref="N58:N60"/>
+    <mergeCell ref="O58:O60"/>
+    <mergeCell ref="P58:P60"/>
+    <mergeCell ref="Q58:Q60"/>
+    <mergeCell ref="R58:R60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:F66"/>
+    <mergeCell ref="G65:L66"/>
+    <mergeCell ref="M65:R66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="K61:K62"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G22:R23">
+    <cfRule type="cellIs" dxfId="82" priority="64" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="65" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22">
+    <cfRule type="cellIs" dxfId="80" priority="62" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="63" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B33">
+    <cfRule type="cellIs" dxfId="78" priority="50" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="51" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73:R74">
+    <cfRule type="cellIs" dxfId="76" priority="44" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="45" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="cellIs" dxfId="74" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="43" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E72">
+    <cfRule type="cellIs" dxfId="72" priority="41" operator="notEqual">
+      <formula>E58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:R34">
+    <cfRule type="cellIs" dxfId="71" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E32">
+    <cfRule type="cellIs" dxfId="69" priority="34" operator="notEqual">
+      <formula>E17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B43">
+    <cfRule type="cellIs" dxfId="68" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="33" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E42">
+    <cfRule type="cellIs" dxfId="64" priority="29" operator="notEqual">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B53">
+    <cfRule type="cellIs" dxfId="63" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:E52">
+    <cfRule type="cellIs" dxfId="61" priority="24" operator="notEqual">
+      <formula>E38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:B63">
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E62">
+    <cfRule type="cellIs" dxfId="56" priority="19" operator="notEqual">
+      <formula>E48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:R44">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:R54">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:R64">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BF293C-4A72-4CF6-9689-251319EAF41B}">
+  <dimension ref="B1:X88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="10"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="G10" s="9">
+        <v>100</v>
+      </c>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>743</v>
+      </c>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="38">
+        <v>100</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+    </row>
+    <row r="16" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="40"/>
+    </row>
+    <row r="17" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <f>D17*$D$5+$G$5</f>
+        <v>2.1</v>
+      </c>
+      <c r="F17" s="8">
+        <f>D17*$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="40"/>
+    </row>
+    <row r="18" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="35">
+        <f>STDEVA(G22:R23)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <f>D18*$D$6+$G$6</f>
+        <v>1.95</v>
+      </c>
+      <c r="F18" s="8">
+        <f>D18*$F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="40"/>
+    </row>
+    <row r="19" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9">
+        <f>D19*$D$8+$G$8</f>
+        <v>2.1</v>
+      </c>
+      <c r="F19" s="8">
+        <f>D19*$F$8</f>
+        <v>50</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42</v>
+      </c>
+      <c r="E20" s="9">
+        <f>D20*$D$10+$G$10</f>
+        <v>104.2</v>
+      </c>
+      <c r="F20" s="8">
+        <f>D20*$F$10</f>
+        <v>49.559999999999995</v>
+      </c>
+      <c r="G20" s="30">
+        <v>86.47</v>
+      </c>
+      <c r="H20" s="30">
+        <v>90.42</v>
+      </c>
+      <c r="I20" s="30">
+        <v>75.8</v>
+      </c>
+      <c r="J20" s="30">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="K20" s="30">
+        <v>67.19</v>
+      </c>
+      <c r="L20" s="30">
+        <v>68.55</v>
+      </c>
+      <c r="M20" s="30">
+        <v>82.16</v>
+      </c>
+      <c r="N20" s="30">
+        <v>80.08</v>
+      </c>
+      <c r="O20" s="30">
+        <v>72.2</v>
+      </c>
+      <c r="P20" s="30">
+        <v>99.62</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>63.31</v>
+      </c>
+      <c r="R20" s="30">
+        <v>84.88</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="31">
+        <f>B24-B14</f>
+        <v>942.03000000000009</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <f>$G$12-D21*$D$12</f>
+        <v>743</v>
+      </c>
+      <c r="F21" s="8">
+        <f>D21*$F$12</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="26"/>
+    </row>
+    <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="17">
+        <f>SUM(F17:F21)</f>
+        <v>99.56</v>
+      </c>
+      <c r="G22" s="39">
+        <v>0</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39">
+        <v>0</v>
+      </c>
+      <c r="K22" s="39">
+        <v>0</v>
+      </c>
+      <c r="L22" s="39">
+        <v>0</v>
+      </c>
+      <c r="M22" s="39">
+        <v>0</v>
+      </c>
+      <c r="N22" s="39">
+        <v>0</v>
+      </c>
+      <c r="O22" s="39">
+        <v>0</v>
+      </c>
+      <c r="P22" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>0</v>
+      </c>
+      <c r="R22" s="39">
+        <v>0</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="17">
+        <f>$E$13-F22</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="27">
+        <f>SUM(G20:R21)</f>
+        <v>942.03000000000009</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="26"/>
+    </row>
+    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43"/>
+    </row>
+    <row r="27" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
+        <f>B16+1</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="40"/>
+    </row>
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <f>D28*$D$5+$G$5</f>
+        <v>2.1</v>
+      </c>
+      <c r="F28" s="8">
+        <f>D28*$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="40"/>
+    </row>
+    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="35">
+        <f>STDEVA(G33:R34)</f>
+        <v>10.719630357433021</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <f>D29*$D$6+$G$6</f>
+        <v>1.95</v>
+      </c>
+      <c r="F29" s="8">
+        <f>D29*$F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="40"/>
+    </row>
+    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="35"/>
+      <c r="C30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9">
+        <f>D30*$D$8+$G$8</f>
+        <v>2.1</v>
+      </c>
+      <c r="F30" s="8">
+        <f>D30*$F$8</f>
+        <v>50</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42</v>
+      </c>
+      <c r="E31" s="9">
+        <f>D31*$D$10+$G$10</f>
+        <v>104.2</v>
+      </c>
+      <c r="F31" s="8">
+        <f>D31*$F$10</f>
+        <v>49.559999999999995</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="31">
+        <f>B35-B24</f>
+        <v>-942.03000000000009</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <f>$G$12-D32*$D$12</f>
+        <v>743</v>
+      </c>
+      <c r="F32" s="8">
+        <f>D32*$F$12</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="26"/>
+    </row>
+    <row r="33" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="31"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="17">
+        <f>SUM(F28:F32)</f>
+        <v>99.56</v>
+      </c>
+      <c r="G33" s="32">
+        <f>G31-G$20</f>
+        <v>-86.47</v>
+      </c>
+      <c r="H33" s="32">
+        <f t="shared" ref="H33:R33" si="0">H31-H$20</f>
+        <v>-90.42</v>
+      </c>
+      <c r="I33" s="32">
+        <f t="shared" si="0"/>
+        <v>-75.8</v>
+      </c>
+      <c r="J33" s="32">
+        <f t="shared" si="0"/>
+        <v>-71.349999999999994</v>
+      </c>
+      <c r="K33" s="32">
+        <f t="shared" si="0"/>
+        <v>-67.19</v>
+      </c>
+      <c r="L33" s="32">
+        <f t="shared" si="0"/>
+        <v>-68.55</v>
+      </c>
+      <c r="M33" s="32">
+        <f t="shared" si="0"/>
+        <v>-82.16</v>
+      </c>
+      <c r="N33" s="32">
+        <f t="shared" si="0"/>
+        <v>-80.08</v>
+      </c>
+      <c r="O33" s="32">
+        <f t="shared" si="0"/>
+        <v>-72.2</v>
+      </c>
+      <c r="P33" s="32">
+        <f t="shared" si="0"/>
+        <v>-99.62</v>
+      </c>
+      <c r="Q33" s="32">
+        <f t="shared" si="0"/>
+        <v>-63.31</v>
+      </c>
+      <c r="R33" s="32">
+        <f t="shared" si="0"/>
+        <v>-84.88</v>
+      </c>
+      <c r="S33" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="17">
+        <f>$E$13-F33</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="26"/>
+    </row>
+    <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="27">
+        <f>SUM(G31:R32)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="26"/>
+    </row>
+    <row r="37" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="98">
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:F36"/>
+    <mergeCell ref="G35:L36"/>
+    <mergeCell ref="M35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="R28:R30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:F25"/>
     <mergeCell ref="G24:L25"/>
@@ -6493,168 +7948,105 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G26:R26"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:F35"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="M34:R35"/>
-    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="G16:R16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
   </mergeCells>
-  <conditionalFormatting sqref="G22:R23">
-    <cfRule type="cellIs" dxfId="50" priority="48" operator="lessThan">
+  <conditionalFormatting sqref="B32:B33">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="lessThan">
+  <conditionalFormatting sqref="G73:R74">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B32">
-    <cfRule type="cellIs" dxfId="40" priority="34" operator="lessThan">
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:R73">
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="lessThan">
+  <conditionalFormatting sqref="E68:E72">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="notEqual">
+      <formula>E58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:R34">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="lessThan">
+  <conditionalFormatting sqref="E28:E32">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="notEqual">
+      <formula>E17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="notEqual">
-      <formula>E57</formula>
+  <conditionalFormatting sqref="E17:E21">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+      <formula>E7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:R33">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="lessThan">
+  <conditionalFormatting sqref="B37:S66">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E31">
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="notEqual">
-      <formula>E17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B42">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:R43">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E41">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="notEqual">
-      <formula>E27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B52">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E51">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="notEqual">
-      <formula>E37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52:R53">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E61">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
-      <formula>E47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G62:R63">
+  <conditionalFormatting sqref="G22:R23">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6663,6 +8055,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>